--- a/Profils/DonnéesPDI-90_EnR-SaisonEte.xlsx
+++ b/Profils/DonnéesPDI-90_EnR-SaisonEte.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/00e1b8bdc4a14852/G3 ECLille/PDI/Ressources/Fluctuations réseaux/Données Profils de charges/Saison été/V2 Données Ete/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/00e1b8bdc4a14852/G3 ECLille/PDI/Ressources/Fluctuations réseaux/Données Profils de charges/Saison été/V4 Données Ete/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_AD4D9D64A577C15A4A5418F960984C305BDEDD87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86D940C6-EC84-4CB3-91FB-FB49773170FA}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_AD4D9D64A577C15A4A5418F960984C305BDEDD87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45FD3F1C-7434-418E-9DE2-0F141890AF7B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,6 +92,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,122 +379,122 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>48.68542717187723</v>
+        <v>29.240427171877233</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>50.088827258320109</v>
+        <v>29.298827258320117</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43.060746290159898</v>
+        <v>21.905746290159904</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>36.604501512750311</v>
+        <v>12.014501512750311</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>31.641521394611726</v>
+        <v>12.111521394611728</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>25.604709696009181</v>
+        <v>11.204709696009187</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>28.48583921625125</v>
+        <v>13.85083921625125</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>24.706672669644131</v>
+        <v>4.6616726696441404</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>13.867488834461883</v>
+        <v>8.8874888344618821</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9.6932041492580083</v>
+        <v>0.96320414925799913</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>15.078235124621816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12.894435960236251</v>
+        <v>1.1694359602362601</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>31.924653928348441</v>
+        <v>14.964653928348442</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>39.88181210380349</v>
+        <v>18.961812103803489</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>51.127374627815357</v>
+        <v>22.312374627815363</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>63.333901139965413</v>
+        <v>28.278901139965413</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>57.699160708711482</v>
+        <v>33.624160708711486</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>64.086572344883052</v>
+        <v>30.621572344883052</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>61.397888857873461</v>
+        <v>21.417888857873503</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>54.602695366901955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>30.945331454401416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>34.879207712025099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>12.086292936296404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>8.4315797735676181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -500,7 +504,7 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>6.7596895260048768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
@@ -660,57 +664,57 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>16.267321106132449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>39.532188694931165</v>
+        <v>3.8421886949311914</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>65.714808180343766</v>
+        <v>20.309808180343779</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>95</v>
+        <v>37.447553546091939</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>95</v>
+        <v>56.306491863174259</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>95</v>
+        <v>55.239870789471865</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>95</v>
+        <v>54.956443731090602</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>95</v>
+        <v>57.08485754934447</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>95</v>
+        <v>39.898505318638044</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>68.467539844763039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>32.236611334221784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
@@ -820,132 +824,132 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>17.431250300148847</v>
+        <v>2.6212503001488403</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>37.214721191711078</v>
+        <v>23.949721191711077</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>37.165372244633318</v>
+        <v>28.360372244633314</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>23.686369399221991</v>
+        <v>15.921369399221993</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>3.5959098112663743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>3.3808060798155659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>16.383212793545564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>30.495506411179928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>42.325620947990167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>56.453845267252554</v>
+        <v>8.8788452672525544</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>68.538363348220699</v>
+        <v>21.133363348220694</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>83.838230802478037</v>
+        <v>32.70823080247802</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>95</v>
+        <v>41.900165682178354</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>95</v>
+        <v>54.714552658118443</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>95</v>
+        <v>73.451379484224177</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>95</v>
+        <v>73.97921625126061</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>95</v>
+        <v>72.482229214328441</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>95</v>
+        <v>70.415201243162912</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>95</v>
+        <v>71.253246008463776</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>95</v>
+        <v>75.096067397775556</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>95</v>
+        <v>55.216839987283471</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>95</v>
+        <v>40.6845609448551</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>95</v>
+        <v>8.3671510319118259</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>88.442875291144404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>56.106096293761688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>36.444184915718168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
@@ -1060,117 +1064,117 @@
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>26.385419803222387</v>
+        <v>0.30541980322237577</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>65.19940201339864</v>
+        <v>24.939402013398642</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>80.059515784829244</v>
+        <v>29.494515784829247</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>95</v>
+        <v>37.580692263362593</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>95</v>
+        <v>31.961750468232232</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>95</v>
+        <v>31.165960956634493</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>95</v>
+        <v>48.32303198386397</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>95</v>
+        <v>46.364376890937919</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>95</v>
+        <v>47.290531623685339</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>95</v>
+        <v>50.217722950583479</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>95</v>
+        <v>58.305334966143207</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>95</v>
+        <v>50.031406857801471</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>95</v>
+        <v>49.420382509724838</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>95</v>
+        <v>43.331579962182616</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>95</v>
+        <v>39.133098239917665</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>95</v>
+        <v>38.234940042167494</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>95</v>
+        <v>32.116122731505158</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>95</v>
+        <v>23.195878457504797</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>95</v>
+        <v>11.499587874340532</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>84.738012686860785</v>
+        <v>35.128012686860771</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>82.55376875860388</v>
+        <v>22.228768758603884</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>49.859875887331171</v>
+        <v>2.8198758873311456</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>18.143019767804827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
@@ -1285,97 +1289,97 @@
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>9.5128502287134236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>53.582967977116589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>95</v>
+        <v>15.726681403976356</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>95</v>
+        <v>42.644831766556187</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>95</v>
+        <v>43.03713884586751</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>95</v>
+        <v>44.972005369663357</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>95</v>
+        <v>33.863829419392019</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>95</v>
+        <v>16.009238582336831</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>86.700639677279867</v>
+        <v>0.24563967727988709</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>89.239804062815168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>63.055360899005933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>49.666595591413341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>53.065010085002164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>57.724719060654095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>24.765538827258304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>31.192272959917272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>14.007198973336699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>4.2615980467946342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
@@ -1525,72 +1529,72 @@
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>35.877076775080397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>64.227495077558359</v>
+        <v>14.317495077558442</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>88.749901145968323</v>
+        <v>40.204901145968385</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>95</v>
+        <v>58.40063981234691</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>95</v>
+        <v>60.331911152931852</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>95</v>
+        <v>64.559831436392429</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>95</v>
+        <v>51.530625555275392</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>76.325685059789635</v>
+        <v>29.63068505978962</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>95</v>
+        <v>51.182836767036456</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>90.4178230802478</v>
+        <v>31.847823080247796</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>82.257941218844536</v>
+        <v>13.937941218844543</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>58.002296499063519</v>
+        <v>1.3922964990635138</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>36.119277481630881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>19.346159054891224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
@@ -2110,42 +2114,42 @@
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>5.1098187530586801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>30.274006153355536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>54.558226759344187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>79.857113198146251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>81.38582423882238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>74.24425683138837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>55.817585167242932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <v>33.707694871656336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
@@ -2305,87 +2309,87 @@
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>3.4726991787926367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>39.070168563607545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>43.274840801037307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>76.948537910134178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <v>95</v>
+        <v>7.4465417804429226</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <v>95</v>
+        <v>22.092638018496029</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <v>95</v>
+        <v>31.312161996864006</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>95</v>
+        <v>32.469192552346421</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>95</v>
+        <v>30.481008172271352</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>95</v>
+        <v>28.662548245719726</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>95</v>
+        <v>23.786710143523003</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>95</v>
+        <v>26.538520241584578</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>95</v>
+        <v>12.082418247680424</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>86.986598879269806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>55.068393708279281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>5.7120722578398544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
@@ -2495,127 +2499,127 @@
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
-        <v>26.040444850645901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
-        <v>71.807000177087801</v>
+        <v>17.202000177087804</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
-        <v>87.205676175382976</v>
+        <v>26.930676175382985</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>93.388355469312785</v>
+        <v>35.403355469312764</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
-        <v>95</v>
+        <v>30.505451949166773</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
-        <v>95</v>
+        <v>27.674925803198374</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
-        <v>95</v>
+        <v>26.544863132113505</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
-        <v>95</v>
+        <v>24.151425587091136</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
-        <v>95</v>
+        <v>43.018338135715304</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
-        <v>95</v>
+        <v>33.696373001008503</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
-        <v>95</v>
+        <v>27.58451736061085</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
-        <v>95</v>
+        <v>25.430036017864865</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
-        <v>95</v>
+        <v>22.831460884598773</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
-        <v>95</v>
+        <v>14.070356576862114</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
-        <v>95</v>
+        <v>15.416130240599312</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
-        <v>95</v>
+        <v>22.331792248955491</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
-        <v>95</v>
+        <v>19.821435672093347</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
-        <v>95</v>
+        <v>18.820128943956195</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
-        <v>95</v>
+        <v>17.439124421121445</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
-        <v>82.049704123751212</v>
+        <v>32.874704123751208</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
-        <v>71.752315303799222</v>
+        <v>18.672315303799252</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
-        <v>53.882275628789657</v>
+        <v>5.7472756287896933</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
-        <v>50.255294480556515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
-        <v>39.943030463031818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
-        <v>30.142252182841428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
@@ -2730,127 +2734,127 @@
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
-        <v>64.466168524588184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
-        <v>95</v>
+        <v>10.521434321423394</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
-        <v>95</v>
+        <v>49.229894197521965</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
-        <v>95</v>
+        <v>65.175689997238649</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
-        <v>95</v>
+        <v>74.546900872832936</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
-        <v>95</v>
+        <v>73.33775017408631</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
-        <v>95</v>
+        <v>69.772668923786185</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
-        <v>95</v>
+        <v>64.457793545598619</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
-        <v>95</v>
+        <v>46.868802766172003</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
-        <v>95</v>
+        <v>44.99012966431345</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
-        <v>95</v>
+        <v>46.860590257767825</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
-        <v>95</v>
+        <v>44.368774672237407</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
-        <v>95</v>
+        <v>32.425124621812401</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
-        <v>85.07873186283274</v>
+        <v>40.073731862832744</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
-        <v>88.678966654464489</v>
+        <v>35.143966654464506</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
-        <v>65.92928813843416</v>
+        <v>23.089288138434156</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
-        <v>58.703094963273003</v>
+        <v>15.423094963273007</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
-        <v>51.330961161249569</v>
+        <v>1.2609611612495881</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
-        <v>32.052487937518933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
-        <v>31.505698684913462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
-        <v>32.360621668347477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
-        <v>24.666042595259523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
-        <v>29.756871127904333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
-        <v>16.439148312563002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
-        <v>17.982553486529316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
@@ -2970,62 +2974,62 @@
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
-        <v>4.1967405333044736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
-        <v>23.406652349565331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
-        <v>26.786615626350642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
-        <v>38.885742778418056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
-        <v>38.565615485280716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
-        <v>29.191726396292516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
-        <v>95</v>
+        <v>20.729543863756415</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
-        <v>73.844431923233884</v>
+        <v>0.59443192323391492</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
-        <v>55.555536230970525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
-        <v>33.664349082144717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
-        <v>23.28263463177732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
-        <v>9.9508130871822953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
@@ -3070,7 +3074,7 @@
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
-        <v>0.48890742539816529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
@@ -3215,17 +3219,17 @@
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
-        <v>3.8758316224846925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
-        <v>19.917840188733599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
-        <v>14.650531518633244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
@@ -3335,12 +3339,12 @@
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
-        <v>5.7960862087595162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
-        <v>15.089324499951969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
@@ -3545,47 +3549,47 @@
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
-        <v>16.85297898574813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
-        <v>54.594908382884746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
-        <v>77.410353339458695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
-        <v>82.044691356796179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
-        <v>93.495591113192134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
-        <v>66.089208687508972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
-        <v>18.965429933246917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
@@ -3700,132 +3704,132 @@
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
-        <v>9.0007281761753806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
-        <v>8.7938803546558848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
-        <v>3.6641501134562713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
-        <v>6.117703485929014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
-        <v>9.3286304507035211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
-        <v>23.046021316573015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
-        <v>35.822995815924727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
-        <v>46.859143780315016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
-        <v>70.493079812587013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
-        <v>95</v>
+        <v>2.9846766821440904</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
-        <v>95</v>
+        <v>13.64361813811788</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
-        <v>95</v>
+        <v>47.368586050743382</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
-        <v>95</v>
+        <v>65.467598160594278</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
-        <v>95</v>
+        <v>72.844192580375889</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
-        <v>95</v>
+        <v>86.443912445475661</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
-        <v>95</v>
+        <v>92.256692068838134</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
-        <v>95</v>
+        <v>91.220141955234723</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
-        <v>95</v>
+        <v>93.167426496927661</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
-        <v>95</v>
+        <v>94.26825223380834</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
-        <v>95</v>
+        <v>93.285420265416604</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
-        <v>95</v>
+        <v>92.174208060991987</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
-        <v>95</v>
+        <v>80.368588748229215</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
-        <v>95</v>
+        <v>46.840479232699387</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
-        <v>95</v>
+        <v>20.394981976060073</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
-        <v>69.470291264467193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
-        <v>20.38256088519908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
@@ -3930,42 +3934,42 @@
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
-        <v>3.5027184033280352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
-        <v>63.868868393723268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
-        <v>95</v>
+        <v>32.101674755678786</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
-        <v>95</v>
+        <v>56.295763803846668</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
-        <v>95</v>
+        <v>67.141524125966484</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
-        <v>95</v>
+        <v>76.835257302622068</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
-        <v>95</v>
+        <v>77.734492718388339</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
-        <v>95</v>
+        <v>85.582420685660082</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
@@ -4040,27 +4044,27 @@
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
-        <v>95</v>
+        <v>93.365360081479807</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
-        <v>95</v>
+        <v>65.88253477598424</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
-        <v>95</v>
+        <v>34.839240457449769</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
-        <v>71.361897277703378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
-        <v>26.217728190166774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
@@ -4165,137 +4169,137 @@
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
-        <v>35.818861070090819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
-        <v>93.669876728857489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
-        <v>95</v>
+        <v>22.111741268669238</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
-        <v>95</v>
+        <v>55.618479535849794</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
-        <v>95</v>
+        <v>64.935246857441271</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
-        <v>95</v>
+        <v>64.32029606684911</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
-        <v>95</v>
+        <v>54.36746030531139</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
-        <v>95</v>
+        <v>52.063493867958478</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
-        <v>95</v>
+        <v>42.944063385439172</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
-        <v>95</v>
+        <v>49.409181524035908</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
-        <v>95</v>
+        <v>48.351698887648261</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
-        <v>95</v>
+        <v>59.800743693872128</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
-        <v>95</v>
+        <v>68.22225830815583</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
-        <v>95</v>
+        <v>70.784384780473658</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
-        <v>95</v>
+        <v>63.26984389753423</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
-        <v>95</v>
+        <v>71.015611249794659</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
-        <v>95</v>
+        <v>64.683145248136469</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
-        <v>92.76724095306912</v>
+        <v>56.242240953069135</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
-        <v>78.435988257335126</v>
+        <v>49.460988257335131</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
-        <v>54.904580045710418</v>
+        <v>34.56958004571041</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
-        <v>47.617577071223451</v>
+        <v>26.012577071223447</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
-        <v>53.226205760391728</v>
+        <v>31.996205760391771</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
-        <v>64.819688183393438</v>
+        <v>41.354688183393442</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
-        <v>72.096035638696279</v>
+        <v>44.646035638696276</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
-        <v>63.164735083990742</v>
+        <v>34.284735083990739</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
-        <v>57.183068687516446</v>
+        <v>21.66306868751645</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
-        <v>31.505761654745719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
@@ -4415,57 +4419,57 @@
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
-        <v>18.393840735004535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
-        <v>25.492838928108352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
-        <v>51.709099328266817</v>
+        <v>10.169099328266812</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
-        <v>47.694114110598832</v>
+        <v>6.5041141105988496</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
-        <v>95</v>
+        <v>48.159369252149069</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
-        <v>95</v>
+        <v>32.45658074905149</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
-        <v>95</v>
+        <v>26.165808961244757</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A817" s="1">
-        <v>66.221283676703635</v>
+        <v>7.5762836767036337</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A818" s="1">
-        <v>39.21291168419534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A819" s="1">
-        <v>30.678323658495678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A820" s="1">
-        <v>12.860547653737406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
@@ -4480,7 +4484,7 @@
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A823" s="1">
-        <v>0.18955968230279721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
@@ -4490,37 +4494,37 @@
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
-        <v>14.338208650790357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A826" s="1">
-        <v>17.383419634193022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
-        <v>20.075502293651269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A828" s="1">
-        <v>19.152022533448953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A829" s="1">
-        <v>15.847059380986019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A830" s="1">
-        <v>13.682208991068137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A831" s="1">
-        <v>5.961496123711604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
@@ -4765,7 +4769,7 @@
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A880" s="1">
-        <v>5.3440528361989621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
@@ -4775,17 +4779,17 @@
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A882" s="1">
-        <v>29.930701117754428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A883" s="1">
-        <v>47.241800022811248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A884" s="1">
-        <v>17.777107615377236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
@@ -4965,32 +4969,32 @@
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A920" s="1">
-        <v>22.698542804079072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A921" s="1">
-        <v>43.871352640403813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A922" s="1">
-        <v>71.508749109363677</v>
+        <v>17.363749109363681</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923" s="1">
-        <v>85.151127457273262</v>
+        <v>38.031127457273264</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A924" s="1">
-        <v>95</v>
+        <v>60.032738330351933</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A925" s="1">
-        <v>95</v>
+        <v>79.562104244950589</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
@@ -5010,17 +5014,17 @@
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A929" s="1">
-        <v>95</v>
+        <v>68.964417698863471</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A930" s="1">
-        <v>78.100302940258388</v>
+        <v>36.575302940258382</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A931" s="1">
-        <v>48.213895212025136</v>
+        <v>2.343895212025136</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
@@ -5140,37 +5144,37 @@
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A955" s="1">
-        <v>13.917972224223242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A956" s="1">
-        <v>41.683391412140388</v>
+        <v>9.6933914121403806</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A957" s="1">
-        <v>58.488031848796993</v>
+        <v>29.85803184879699</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A958" s="1">
-        <v>76.688010943427912</v>
+        <v>43.053010943427914</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A959" s="1">
-        <v>95</v>
+        <v>58.857966281275544</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A960" s="1">
-        <v>95</v>
+        <v>71.932090326802083</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A961" s="1">
-        <v>95</v>
+        <v>86.926493870960002</v>
       </c>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.25">
@@ -5250,22 +5254,22 @@
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A977" s="1">
-        <v>95</v>
+        <v>89.912242142336012</v>
       </c>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A978" s="1">
-        <v>95</v>
+        <v>78.605749456263354</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A979" s="1">
-        <v>95</v>
+        <v>39.97533177276938</v>
       </c>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A980" s="1">
-        <v>50.613790550112782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.25">
@@ -5375,27 +5379,27 @@
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1002" s="1">
-        <v>24.90202399390094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1003" s="1">
-        <v>81.71839697990201</v>
+        <v>27.318396979902023</v>
       </c>
     </row>
     <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1004" s="1">
-        <v>95</v>
+        <v>63.462260796354997</v>
       </c>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1005" s="1">
-        <v>95</v>
+        <v>86.067856111631414</v>
       </c>
     </row>
     <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1006" s="1">
-        <v>95</v>
+        <v>92.030448022238488</v>
       </c>
     </row>
     <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
@@ -5430,67 +5434,67 @@
     </row>
     <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1013" s="1">
-        <v>95</v>
+        <v>76.821950472492674</v>
       </c>
     </row>
     <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1014" s="1">
-        <v>95</v>
+        <v>80.89572906324959</v>
       </c>
     </row>
     <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1015" s="1">
-        <v>95</v>
+        <v>67.652267962263352</v>
       </c>
     </row>
     <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1016" s="1">
-        <v>95</v>
+        <v>53.498181593946057</v>
       </c>
     </row>
     <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1017" s="1">
-        <v>95</v>
+        <v>54.572119495783511</v>
       </c>
     </row>
     <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1018" s="1">
-        <v>80.122772299262749</v>
+        <v>40.52777229926275</v>
       </c>
     </row>
     <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1019" s="1">
-        <v>95</v>
+        <v>60.290651962595234</v>
       </c>
     </row>
     <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1020" s="1">
-        <v>95</v>
+        <v>45.358802107479526</v>
       </c>
     </row>
     <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1021" s="1">
-        <v>95</v>
+        <v>32.696617451594477</v>
       </c>
     </row>
     <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1022" s="1">
-        <v>93.797908048773508</v>
+        <v>26.267908048773492</v>
       </c>
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1023" s="1">
-        <v>75.497899794679455</v>
+        <v>12.34789979467946</v>
       </c>
     </row>
     <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1024" s="1">
-        <v>46.473384781536467</v>
+        <v>8.8883847815364714</v>
       </c>
     </row>
     <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1025" s="1">
-        <v>27.401602470194874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
@@ -5620,92 +5624,92 @@
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1051" s="1">
-        <v>25.001614890985941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1052" s="1">
-        <v>51.151852658237537</v>
+        <v>1.3618526582375305</v>
       </c>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1053" s="1">
-        <v>77.183973786620768</v>
+        <v>26.793973786620761</v>
       </c>
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1054" s="1">
-        <v>64.620750706085545</v>
+        <v>24.550750706085591</v>
       </c>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1055" s="1">
-        <v>68.887951094910406</v>
+        <v>14.657951094910377</v>
       </c>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1056" s="1">
-        <v>51.883971900062456</v>
+        <v>8.3439719000624528</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1057" s="1">
-        <v>56.883080532944334</v>
+        <v>10.708080532944322</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1058" s="1">
-        <v>54.804643946529708</v>
+        <v>8.4846439465297152</v>
       </c>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1059" s="1">
-        <v>50.931727589822309</v>
+        <v>10.161727589822286</v>
       </c>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1060" s="1">
-        <v>95</v>
+        <v>34.262232375293145</v>
       </c>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1061" s="1">
-        <v>95</v>
+        <v>27.902093284669927</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1062" s="1">
-        <v>79.074060745822521</v>
+        <v>22.809060745822489</v>
       </c>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1063" s="1">
-        <v>69.017241541687895</v>
+        <v>17.272241541687901</v>
       </c>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1064" s="1">
-        <v>58.8981415426409</v>
+        <v>15.578141542640941</v>
       </c>
     </row>
     <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1065" s="1">
-        <v>41.975552822371093</v>
+        <v>4.3905528223710828</v>
       </c>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1066" s="1">
-        <v>13.670516661555949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1067" s="1">
-        <v>3.7633473321833568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1068" s="1">
-        <v>11.186446945544914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
@@ -5715,12 +5719,12 @@
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1070" s="1">
-        <v>9.168065015831516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1071" s="1">
-        <v>5.7841944452113419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
@@ -5865,17 +5869,17 @@
     </row>
     <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1100" s="1">
-        <v>8.7214583067052978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1101" s="1">
-        <v>30.56860981178955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1102" s="1">
-        <v>16.490304484098044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
@@ -6185,47 +6189,47 @@
     </row>
     <row r="1164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1164" s="1">
-        <v>2.9441258478212782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1165" s="1">
-        <v>27.187908172103121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1166" s="1">
-        <v>32.509051194139367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1167" s="1">
-        <v>42.38066457059972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1168" s="1">
-        <v>64.29244119458734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1169" s="1">
-        <v>78.084103454029162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1170" s="1">
-        <v>94.207821684613918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1171" s="1">
-        <v>86.034721431830135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1172" s="1">
-        <v>42.398230067113261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173" spans="1:1" x14ac:dyDescent="0.25">
@@ -6350,7 +6354,7 @@
     </row>
     <row r="1197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1197" s="1">
-        <v>2.5080653197176161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198" spans="1:1" x14ac:dyDescent="0.25">
@@ -6385,37 +6389,37 @@
     </row>
     <row r="1204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1204" s="1">
-        <v>3.2859228658737534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1205" s="1">
-        <v>37.670458767976939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1206" s="1">
-        <v>65.573780386686565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1207" s="1">
-        <v>90.662360118829056</v>
+        <v>7.8373601188290385</v>
       </c>
     </row>
     <row r="1208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1208" s="1">
-        <v>95</v>
+        <v>29.536615087951319</v>
       </c>
     </row>
     <row r="1209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1209" s="1">
-        <v>95</v>
+        <v>57.443249587067548</v>
       </c>
     </row>
     <row r="1210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1210" s="1">
-        <v>95</v>
+        <v>73.050466692666291</v>
       </c>
     </row>
     <row r="1211" spans="1:1" x14ac:dyDescent="0.25">
@@ -6450,27 +6454,27 @@
     </row>
     <row r="1217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1217" s="1">
-        <v>95</v>
+        <v>92.69699576484102</v>
       </c>
     </row>
     <row r="1218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1218" s="1">
-        <v>95</v>
+        <v>56.401462287590356</v>
       </c>
     </row>
     <row r="1219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1219" s="1">
-        <v>95</v>
+        <v>20.408052207708234</v>
       </c>
     </row>
     <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1220" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1221" s="1">
-        <v>47.208644128324181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
@@ -6580,52 +6584,52 @@
     </row>
     <row r="1243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1243" s="1">
-        <v>15.403059897709234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1244" s="1">
-        <v>60.218843541396517</v>
+        <v>21.458843541396519</v>
       </c>
     </row>
     <row r="1245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1245" s="1">
-        <v>78.458105655405035</v>
+        <v>32.863105655405036</v>
       </c>
     </row>
     <row r="1246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1246" s="1">
-        <v>95</v>
+        <v>33.489136291600616</v>
       </c>
     </row>
     <row r="1247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1247" s="1">
-        <v>95</v>
+        <v>39.639364647666795</v>
       </c>
     </row>
     <row r="1248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1248" s="1">
-        <v>95</v>
+        <v>45.693341737501783</v>
       </c>
     </row>
     <row r="1249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1249" s="1">
-        <v>95</v>
+        <v>49.169768044950281</v>
       </c>
     </row>
     <row r="1250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1250" s="1">
-        <v>95</v>
+        <v>62.09931726945905</v>
       </c>
     </row>
     <row r="1251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1251" s="1">
-        <v>95</v>
+        <v>75.145922665579903</v>
       </c>
     </row>
     <row r="1252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1252" s="1">
-        <v>95</v>
+        <v>87.120643982606012</v>
       </c>
     </row>
     <row r="1253" spans="1:1" x14ac:dyDescent="0.25">
@@ -6695,17 +6699,17 @@
     </row>
     <row r="1266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1266" s="1">
-        <v>95</v>
+        <v>62.567650530324492</v>
       </c>
     </row>
     <row r="1267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1267" s="1">
-        <v>59.804864579835467</v>
+        <v>4.589864579835476</v>
       </c>
     </row>
     <row r="1268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1268" s="1">
-        <v>7.3778072913074908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1269" spans="1:1" x14ac:dyDescent="0.25">
@@ -6815,127 +6819,127 @@
     </row>
     <row r="1290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1290" s="1">
-        <v>50.585199869135081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1291" s="1">
-        <v>80.296774300052803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1292" s="1">
-        <v>95</v>
+        <v>38.063257305623559</v>
       </c>
     </row>
     <row r="1293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1293" s="1">
-        <v>95</v>
+        <v>59.17869261153529</v>
       </c>
     </row>
     <row r="1294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1294" s="1">
-        <v>95</v>
+        <v>65.100812335992558</v>
       </c>
     </row>
     <row r="1295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1295" s="1">
-        <v>95</v>
+        <v>66.663448114934283</v>
       </c>
     </row>
     <row r="1296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1296" s="1">
-        <v>95</v>
+        <v>67.531027949863116</v>
       </c>
     </row>
     <row r="1297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1297" s="1">
-        <v>95</v>
+        <v>60.274764443163797</v>
       </c>
     </row>
     <row r="1298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1298" s="1">
-        <v>95</v>
+        <v>64.965214147929402</v>
       </c>
     </row>
     <row r="1299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1299" s="1">
-        <v>95</v>
+        <v>60.065211028249742</v>
       </c>
     </row>
     <row r="1300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1300" s="1">
-        <v>95</v>
+        <v>61.478722035701672</v>
       </c>
     </row>
     <row r="1301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1301" s="1">
-        <v>95</v>
+        <v>56.806645447425929</v>
       </c>
     </row>
     <row r="1302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1302" s="1">
-        <v>95</v>
+        <v>62.441527816162569</v>
       </c>
     </row>
     <row r="1303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1303" s="1">
-        <v>95</v>
+        <v>50.428061084056417</v>
       </c>
     </row>
     <row r="1304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1304" s="1">
-        <v>95</v>
+        <v>54.637236824328674</v>
       </c>
     </row>
     <row r="1305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1305" s="1">
-        <v>95</v>
+        <v>58.219310587234133</v>
       </c>
     </row>
     <row r="1306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1306" s="1">
-        <v>95</v>
+        <v>55.442941728980813</v>
       </c>
     </row>
     <row r="1307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1307" s="1">
-        <v>95</v>
+        <v>48.061015302967711</v>
       </c>
     </row>
     <row r="1308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1308" s="1">
-        <v>88.013239469189145</v>
+        <v>30.343239469189164</v>
       </c>
     </row>
     <row r="1309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1309" s="1">
-        <v>88.154909058394878</v>
+        <v>23.044909058394868</v>
       </c>
     </row>
     <row r="1310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1310" s="1">
-        <v>77.897441498298349</v>
+        <v>6.912441498298322</v>
       </c>
     </row>
     <row r="1311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1311" s="1">
-        <v>69.6537459010992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1312" s="1">
-        <v>61.004948804704398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1313" s="1">
-        <v>25.952650951992791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1314" s="1">
-        <v>23.525188643450392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1315" spans="1:1" x14ac:dyDescent="0.25">
@@ -7045,132 +7049,132 @@
     </row>
     <row r="1336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1336" s="1">
-        <v>5.1044801871728298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1337" s="1">
-        <v>63.381439483984003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1338" s="1">
-        <v>92.258055590572923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1339" s="1">
-        <v>95</v>
+        <v>4.0845837685491828</v>
       </c>
     </row>
     <row r="1340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1340" s="1">
-        <v>95</v>
+        <v>26.034543083369343</v>
       </c>
     </row>
     <row r="1341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1341" s="1">
-        <v>95</v>
+        <v>46.575479695652803</v>
       </c>
     </row>
     <row r="1342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1342" s="1">
-        <v>95</v>
+        <v>47.92001745955487</v>
       </c>
     </row>
     <row r="1343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1343" s="1">
-        <v>95</v>
+        <v>60.082581270037537</v>
       </c>
     </row>
     <row r="1344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1344" s="1">
-        <v>95</v>
+        <v>51.191285837775538</v>
       </c>
     </row>
     <row r="1345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1345" s="1">
-        <v>95</v>
+        <v>53.818113384238565</v>
       </c>
     </row>
     <row r="1346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1346" s="1">
-        <v>95</v>
+        <v>54.09317245353693</v>
       </c>
     </row>
     <row r="1347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1347" s="1">
-        <v>95</v>
+        <v>50.703253570813935</v>
       </c>
     </row>
     <row r="1348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1348" s="1">
-        <v>88.217911829948576</v>
+        <v>54.577911829948569</v>
       </c>
     </row>
     <row r="1349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1349" s="1">
-        <v>77.981508694460317</v>
+        <v>48.631508694460308</v>
       </c>
     </row>
     <row r="1350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1350" s="1">
-        <v>76.031473845424173</v>
+        <v>49.19647384542418</v>
       </c>
     </row>
     <row r="1351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1351" s="1">
-        <v>73.962724775301751</v>
+        <v>41.317724775301748</v>
       </c>
     </row>
     <row r="1352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1352" s="1">
-        <v>57.448706151402831</v>
+        <v>41.518706151402831</v>
       </c>
     </row>
     <row r="1353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1353" s="1">
-        <v>54.240819828269025</v>
+        <v>34.590819828269041</v>
       </c>
     </row>
     <row r="1354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1354" s="1">
-        <v>46.831784081168834</v>
+        <v>31.326784081168817</v>
       </c>
     </row>
     <row r="1355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1355" s="1">
-        <v>54.990575209506233</v>
+        <v>35.450575209506233</v>
       </c>
     </row>
     <row r="1356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1356" s="1">
-        <v>61.009311966283917</v>
+        <v>37.164311966283925</v>
       </c>
     </row>
     <row r="1357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1357" s="1">
-        <v>60.600682823038177</v>
+        <v>34.845682823038196</v>
       </c>
     </row>
     <row r="1358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1358" s="1">
-        <v>59.111060834033545</v>
+        <v>22.791060834033569</v>
       </c>
     </row>
     <row r="1359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1359" s="1">
-        <v>62.747947906967262</v>
+        <v>22.922947906967266</v>
       </c>
     </row>
     <row r="1360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1360" s="1">
-        <v>48.559441837606677</v>
+        <v>9.754441837606711</v>
       </c>
     </row>
     <row r="1361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1361" s="1">
-        <v>29.456489317631483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1362" spans="1:1" x14ac:dyDescent="0.25">
@@ -7290,17 +7294,17 @@
     </row>
     <row r="1385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1385" s="1">
-        <v>28.236893384118517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1386" s="1">
-        <v>67.449244795418522</v>
+        <v>25.899244795418518</v>
       </c>
     </row>
     <row r="1387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1387" s="1">
-        <v>92.173415213946129</v>
+        <v>57.688415213946108</v>
       </c>
     </row>
     <row r="1388" spans="1:1" x14ac:dyDescent="0.25">
@@ -7320,37 +7324,37 @@
     </row>
     <row r="1391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1391" s="1">
-        <v>95</v>
+        <v>92.452810928714797</v>
       </c>
     </row>
     <row r="1392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1392" s="1">
-        <v>95</v>
+        <v>75.875666615641308</v>
       </c>
     </row>
     <row r="1393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1393" s="1">
-        <v>95</v>
+        <v>50.271603080127704</v>
       </c>
     </row>
     <row r="1394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1394" s="1">
-        <v>76.644897994405213</v>
+        <v>35.20989799440521</v>
       </c>
     </row>
     <row r="1395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1395" s="1">
-        <v>47.34338928108339</v>
+        <v>23.088389281083391</v>
       </c>
     </row>
     <row r="1396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1396" s="1">
-        <v>31.033505059599037</v>
+        <v>9.8835050595990381</v>
       </c>
     </row>
     <row r="1397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1397" s="1">
-        <v>6.271036254994133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1398" spans="1:1" x14ac:dyDescent="0.25">
@@ -7550,97 +7554,97 @@
     </row>
     <row r="1437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1437" s="1">
-        <v>6.5448238423339715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1438" s="1">
-        <v>10.184211062247186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1439" s="1">
-        <v>17.126854711863153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1440" s="1">
-        <v>6.85526158984585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1441" s="1">
-        <v>2.0895759246196937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1442" s="1">
-        <v>8.2401416209249234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1443" s="1">
-        <v>17.453975267919621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1444" s="1">
-        <v>26.694824061839711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1445" s="1">
-        <v>14.977596691850186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1446" s="1">
-        <v>26.309131577044308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1447" s="1">
-        <v>23.060334727892741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1448" s="1">
-        <v>31.448268583396338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1449" s="1">
-        <v>52.735057149279854</v>
+        <v>6.8050571492798912</v>
       </c>
     </row>
     <row r="1450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1450" s="1">
-        <v>85.274313642446032</v>
+        <v>26.509313642446042</v>
       </c>
     </row>
     <row r="1451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1451" s="1">
-        <v>95</v>
+        <v>34.440545114267692</v>
       </c>
     </row>
     <row r="1452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1452" s="1">
-        <v>95</v>
+        <v>50.666605976330779</v>
       </c>
     </row>
     <row r="1453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1453" s="1">
-        <v>95</v>
+        <v>61.202590606652954</v>
       </c>
     </row>
     <row r="1454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1454" s="1">
-        <v>95</v>
+        <v>75.58088138658411</v>
       </c>
     </row>
     <row r="1455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1455" s="1">
-        <v>95</v>
+        <v>90.5337676784183</v>
       </c>
     </row>
     <row r="1456" spans="1:1" x14ac:dyDescent="0.25">
@@ -7660,27 +7664,27 @@
     </row>
     <row r="1459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1459" s="1">
-        <v>95</v>
+        <v>72.976070957926652</v>
       </c>
     </row>
     <row r="1460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1460" s="1">
-        <v>95</v>
+        <v>42.928298945498746</v>
       </c>
     </row>
     <row r="1461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1461" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1462" s="1">
-        <v>86.333082901200726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1463" s="1">
-        <v>44.818832990579644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1464" spans="1:1" x14ac:dyDescent="0.25">
@@ -7770,87 +7774,87 @@
     </row>
     <row r="1481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1481" s="1">
-        <v>36.595480736480283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1482" s="1">
-        <v>52.412038414711247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1483" s="1">
-        <v>69.48653934695966</v>
+        <v>3.6015393469596537</v>
       </c>
     </row>
     <row r="1484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1484" s="1">
-        <v>72.963746328782193</v>
+        <v>13.543746328782207</v>
       </c>
     </row>
     <row r="1485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1485" s="1">
-        <v>63.401616642710792</v>
+        <v>21.236616642710786</v>
       </c>
     </row>
     <row r="1486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1486" s="1">
-        <v>63.230148894571528</v>
+        <v>6.3251488945715302</v>
       </c>
     </row>
     <row r="1487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1487" s="1">
-        <v>48.515993781183958</v>
+        <v>1.9959937811839517</v>
       </c>
     </row>
     <row r="1488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1488" s="1">
-        <v>30.685159484104108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1489" s="1">
-        <v>17.855879612318795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1490" s="1">
-        <v>40.334337055459613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1491" s="1">
-        <v>70.638742704630516</v>
+        <v>12.138742704630522</v>
       </c>
     </row>
     <row r="1492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1492" s="1">
-        <v>95</v>
+        <v>20.172215482692618</v>
       </c>
     </row>
     <row r="1493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1493" s="1">
-        <v>95</v>
+        <v>36.904878276434452</v>
       </c>
     </row>
     <row r="1494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1494" s="1">
-        <v>95</v>
+        <v>52.84091972809172</v>
       </c>
     </row>
     <row r="1495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1495" s="1">
-        <v>95</v>
+        <v>69.134436557263896</v>
       </c>
     </row>
     <row r="1496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1496" s="1">
-        <v>95</v>
+        <v>83.539823299438225</v>
       </c>
     </row>
     <row r="1497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1497" s="1">
-        <v>95</v>
+        <v>90.348057857864845</v>
       </c>
     </row>
     <row r="1498" spans="1:1" x14ac:dyDescent="0.25">
@@ -7895,27 +7899,27 @@
     </row>
     <row r="1506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1506" s="1">
-        <v>95</v>
+        <v>75.403785914447795</v>
       </c>
     </row>
     <row r="1507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1507" s="1">
-        <v>95</v>
+        <v>41.670777791893698</v>
       </c>
     </row>
     <row r="1508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1508" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1509" s="1">
-        <v>75.515068130991352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1510" s="1">
-        <v>31.793347107363722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1511" spans="1:1" x14ac:dyDescent="0.25">
@@ -8015,127 +8019,127 @@
     </row>
     <row r="1530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1530" s="1">
-        <v>2.2577793035345621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1531" s="1">
-        <v>49.265647571195288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1532" s="1">
-        <v>83.36359165646158</v>
+        <v>10.548591656461568</v>
       </c>
     </row>
     <row r="1533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1533" s="1">
-        <v>95</v>
+        <v>25.464458516424155</v>
       </c>
     </row>
     <row r="1534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1534" s="1">
-        <v>95</v>
+        <v>23.227552946261341</v>
       </c>
     </row>
     <row r="1535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1535" s="1">
-        <v>95</v>
+        <v>13.794246506267092</v>
       </c>
     </row>
     <row r="1536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1536" s="1">
-        <v>95</v>
+        <v>16.036886615761421</v>
       </c>
     </row>
     <row r="1537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1537" s="1">
-        <v>95</v>
+        <v>7.1017001805658122</v>
       </c>
     </row>
     <row r="1538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1538" s="1">
-        <v>95</v>
+        <v>15.622568410118173</v>
       </c>
     </row>
     <row r="1539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1539" s="1">
-        <v>95</v>
+        <v>14.19875294099179</v>
       </c>
     </row>
     <row r="1540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1540" s="1">
-        <v>95</v>
+        <v>26.717402116897421</v>
       </c>
     </row>
     <row r="1541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1541" s="1">
-        <v>95</v>
+        <v>36.374094084829494</v>
       </c>
     </row>
     <row r="1542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1542" s="1">
-        <v>95</v>
+        <v>38.639975535881341</v>
       </c>
     </row>
     <row r="1543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1543" s="1">
-        <v>95</v>
+        <v>40.416087490056512</v>
       </c>
     </row>
     <row r="1544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1544" s="1">
-        <v>95</v>
+        <v>51.762955096233519</v>
       </c>
     </row>
     <row r="1545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1545" s="1">
-        <v>95</v>
+        <v>53.929692541975513</v>
       </c>
     </row>
     <row r="1546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1546" s="1">
-        <v>95</v>
+        <v>54.038324129390716</v>
       </c>
     </row>
     <row r="1547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1547" s="1">
-        <v>95</v>
+        <v>61.590122982088623</v>
       </c>
     </row>
     <row r="1548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1548" s="1">
-        <v>95</v>
+        <v>61.964861276562836</v>
       </c>
     </row>
     <row r="1549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1549" s="1">
-        <v>95</v>
+        <v>56.730547948046791</v>
       </c>
     </row>
     <row r="1550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1550" s="1">
-        <v>95</v>
+        <v>52.152648403413536</v>
       </c>
     </row>
     <row r="1551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1551" s="1">
-        <v>95</v>
+        <v>43.440655954808818</v>
       </c>
     </row>
     <row r="1552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1552" s="1">
-        <v>74.878887638930408</v>
+        <v>16.233887638930415</v>
       </c>
     </row>
     <row r="1553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1553" s="1">
-        <v>49.896995213769976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1554" s="1">
-        <v>16.995038420982848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1555" spans="1:1" x14ac:dyDescent="0.25">
@@ -8250,132 +8254,132 @@
     </row>
     <row r="1577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1577" s="1">
-        <v>61.889993081568463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1578" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1579" s="1">
-        <v>95</v>
+        <v>18.723021628727828</v>
       </c>
     </row>
     <row r="1580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1580" s="1">
-        <v>95</v>
+        <v>43.944645734284194</v>
       </c>
     </row>
     <row r="1581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1581" s="1">
-        <v>95</v>
+        <v>38.826288959323804</v>
       </c>
     </row>
     <row r="1582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1582" s="1">
-        <v>95</v>
+        <v>36.713631321135274</v>
       </c>
     </row>
     <row r="1583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1583" s="1">
-        <v>95</v>
+        <v>21.230622360675326</v>
       </c>
     </row>
     <row r="1584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1584" s="1">
-        <v>95</v>
+        <v>3.3278749459731802</v>
       </c>
     </row>
     <row r="1585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1585" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1586" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1587" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1588" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1589" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1590" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1591" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1592" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1593" s="1">
-        <v>40.218489130453065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1594" s="1">
-        <v>41.149022985283985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1595" s="1">
-        <v>16.172391412444057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1596" s="1">
-        <v>38.02962932711899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1597" s="1">
-        <v>24.416801310882082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1598" s="1">
-        <v>17.687480271459748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1599" s="1">
-        <v>16.960743029106624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1600" s="1">
-        <v>9.8671250563625748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1601" s="1">
-        <v>23.092616448945439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1602" s="1">
-        <v>9.889406366491631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1603" spans="1:1" x14ac:dyDescent="0.25">
@@ -8475,32 +8479,32 @@
     </row>
     <row r="1622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1622" s="1">
-        <v>29.424824773087433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1623" s="1">
-        <v>89.589137117010026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1624" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1625" s="1">
-        <v>95</v>
+        <v>20.081958921625109</v>
       </c>
     </row>
     <row r="1626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1626" s="1">
-        <v>95</v>
+        <v>55.65825691543003</v>
       </c>
     </row>
     <row r="1627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1627" s="1">
-        <v>95</v>
+        <v>84.989931175863177</v>
       </c>
     </row>
     <row r="1628" spans="1:1" x14ac:dyDescent="0.25">
@@ -8515,57 +8519,57 @@
     </row>
     <row r="1630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1630" s="1">
-        <v>95</v>
+        <v>83.451483936032275</v>
       </c>
     </row>
     <row r="1631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1631" s="1">
-        <v>95</v>
+        <v>64.590869471257719</v>
       </c>
     </row>
     <row r="1632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1632" s="1">
-        <v>95</v>
+        <v>60.290283100417788</v>
       </c>
     </row>
     <row r="1633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1633" s="1">
-        <v>95</v>
+        <v>49.258869526756072</v>
       </c>
     </row>
     <row r="1634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1634" s="1">
-        <v>95</v>
+        <v>50.711314895923742</v>
       </c>
     </row>
     <row r="1635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1635" s="1">
-        <v>95</v>
+        <v>38.490906893398872</v>
       </c>
     </row>
     <row r="1636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1636" s="1">
-        <v>95</v>
+        <v>39.601101440322132</v>
       </c>
     </row>
     <row r="1637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1637" s="1">
-        <v>86.038793634171711</v>
+        <v>26.398793634171696</v>
       </c>
     </row>
     <row r="1638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1638" s="1">
-        <v>62.442352353382034</v>
+        <v>21.722352353382039</v>
       </c>
     </row>
     <row r="1639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1639" s="1">
-        <v>26.397078415796958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1640" s="1">
-        <v>15.288253402637103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1641" spans="1:1" x14ac:dyDescent="0.25">
@@ -8740,22 +8744,22 @@
     </row>
     <row r="1675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1675" s="1">
-        <v>89.037747982999576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1676" s="1">
-        <v>72.535216872568782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1677" s="1">
-        <v>38.61134730826484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1678" s="1">
-        <v>27.2611946375402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1679" spans="1:1" x14ac:dyDescent="0.25">
@@ -8845,32 +8849,32 @@
     </row>
     <row r="1696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1696" s="1">
-        <v>10.554882727922532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1697" s="1">
-        <v>11.619691395395156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1698" s="1">
-        <v>16.176953638712941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1699" s="1">
-        <v>12.853138473297504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1700" s="1">
-        <v>14.667599436402151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1701" s="1">
-        <v>3.7838424111666429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1702" spans="1:1" x14ac:dyDescent="0.25">
@@ -8985,87 +8989,87 @@
     </row>
     <row r="1724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1724" s="1">
-        <v>24.889420342509339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1725" s="1">
-        <v>43.383618209476253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1726" s="1">
-        <v>58.587517856171786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1727" s="1">
-        <v>59.004706822988837</v>
+        <v>6.7397068229888459</v>
       </c>
     </row>
     <row r="1728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1728" s="1">
-        <v>66.288159487105574</v>
+        <v>3.8981594871055862</v>
       </c>
     </row>
     <row r="1729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1729" s="1">
-        <v>66.630275591323624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1730" s="1">
-        <v>42.484913203952992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1731" s="1">
-        <v>25.234932070587117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1732" s="1">
-        <v>0.20269540602643243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1733" s="1">
-        <v>5.5686310324317674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1734" s="1">
-        <v>15.548358232842993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1735" s="1">
-        <v>21.82768895084023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1736" s="1">
-        <v>54.446802235854477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1737" s="1">
-        <v>88.281109193272641</v>
+        <v>19.76110919327267</v>
       </c>
     </row>
     <row r="1738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1738" s="1">
-        <v>95</v>
+        <v>41.367690940932363</v>
       </c>
     </row>
     <row r="1739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1739" s="1">
-        <v>95</v>
+        <v>57.58437546984392</v>
       </c>
     </row>
     <row r="1740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1740" s="1">
-        <v>95</v>
+        <v>92.168957410346337</v>
       </c>
     </row>
     <row r="1741" spans="1:1" x14ac:dyDescent="0.25">
@@ -9115,57 +9119,57 @@
     </row>
     <row r="1750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1750" s="1">
-        <v>95</v>
+        <v>94.659832757748148</v>
       </c>
     </row>
     <row r="1751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1751" s="1">
-        <v>95</v>
+        <v>61.191736005552912</v>
       </c>
     </row>
     <row r="1752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1752" s="1">
-        <v>95</v>
+        <v>19.449821487683579</v>
       </c>
     </row>
     <row r="1753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1753" s="1">
-        <v>95</v>
+        <v>1.3479207980348111</v>
       </c>
     </row>
     <row r="1754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1754" s="1">
-        <v>90.868748244713032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1755" s="1">
-        <v>69.806428325219784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1756" s="1">
-        <v>42.733816277426115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1757" s="1">
-        <v>72.38395248662016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1758" s="1">
-        <v>51.8715302283318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1759" s="1">
-        <v>38.800065379724103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1760" s="1">
-        <v>17.843625928324247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1761" spans="1:1" x14ac:dyDescent="0.25">
@@ -9255,97 +9259,97 @@
     </row>
     <row r="1778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1778" s="1">
-        <v>5.1191738202537449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1779" s="1">
-        <v>22.013838394427321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1780" s="1">
-        <v>60.030145072111395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1781" s="1">
-        <v>90.212806287794237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1782" s="1">
-        <v>95</v>
+        <v>10.752281643446123</v>
       </c>
     </row>
     <row r="1783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1783" s="1">
-        <v>95</v>
+        <v>13.665119755896985</v>
       </c>
     </row>
     <row r="1784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1784" s="1">
-        <v>95</v>
+        <v>36.424598065854617</v>
       </c>
     </row>
     <row r="1785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1785" s="1">
-        <v>95</v>
+        <v>42.598097292521679</v>
       </c>
     </row>
     <row r="1786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1786" s="1">
-        <v>95</v>
+        <v>56.048763889301533</v>
       </c>
     </row>
     <row r="1787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1787" s="1">
-        <v>95</v>
+        <v>80.984875375384618</v>
       </c>
     </row>
     <row r="1788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1788" s="1">
-        <v>95</v>
+        <v>70.314050916647659</v>
       </c>
     </row>
     <row r="1789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1789" s="1">
-        <v>95</v>
+        <v>77.06586119135325</v>
       </c>
     </row>
     <row r="1790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1790" s="1">
-        <v>95</v>
+        <v>73.587769933575771</v>
       </c>
     </row>
     <row r="1791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1791" s="1">
-        <v>95</v>
+        <v>52.166606940544433</v>
       </c>
     </row>
     <row r="1792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1792" s="1">
-        <v>95</v>
+        <v>51.135908539896469</v>
       </c>
     </row>
     <row r="1793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1793" s="1">
-        <v>95</v>
+        <v>21.643722492114783</v>
       </c>
     </row>
     <row r="1794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1794" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1795" s="1">
-        <v>81.26859343090203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1796" s="1">
-        <v>12.108831809312823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1797" spans="1:1" x14ac:dyDescent="0.25">
@@ -9455,17 +9459,17 @@
     </row>
     <row r="1818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1818" s="1">
-        <v>8.7638797290148247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1819" s="1">
-        <v>85.399085875524221</v>
+        <v>13.194085875524205</v>
       </c>
     </row>
     <row r="1820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1820" s="1">
-        <v>95</v>
+        <v>62.666189426745568</v>
       </c>
     </row>
     <row r="1821" spans="1:1" x14ac:dyDescent="0.25">
@@ -9575,17 +9579,17 @@
     </row>
     <row r="1842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1842" s="1">
-        <v>95</v>
+        <v>70.718756918431524</v>
       </c>
     </row>
     <row r="1843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1843" s="1">
-        <v>95</v>
+        <v>25.619825268333109</v>
       </c>
     </row>
     <row r="1844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1844" s="1">
-        <v>39.265717265763747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1845" spans="1:1" x14ac:dyDescent="0.25">
@@ -9685,22 +9689,22 @@
     </row>
     <row r="1864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1864" s="1">
-        <v>20.866069250348112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1865" s="1">
-        <v>87.934147892354559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1866" s="1">
-        <v>95</v>
+        <v>48.118539085386317</v>
       </c>
     </row>
     <row r="1867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1867" s="1">
-        <v>95</v>
+        <v>85.809439697089729</v>
       </c>
     </row>
     <row r="1868" spans="1:1" x14ac:dyDescent="0.25">
@@ -9730,62 +9734,62 @@
     </row>
     <row r="1873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1873" s="1">
-        <v>95</v>
+        <v>83.790596020626225</v>
       </c>
     </row>
     <row r="1874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1874" s="1">
-        <v>95</v>
+        <v>71.491028862864596</v>
       </c>
     </row>
     <row r="1875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1875" s="1">
-        <v>95</v>
+        <v>47.270343665730572</v>
       </c>
     </row>
     <row r="1876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1876" s="1">
-        <v>95</v>
+        <v>31.534849310783418</v>
       </c>
     </row>
     <row r="1877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1877" s="1">
-        <v>95</v>
+        <v>9.4485680782492718</v>
       </c>
     </row>
     <row r="1878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1878" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1879" s="1">
-        <v>92.560332841509663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1880" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1881" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1882" s="1">
-        <v>68.802412611129824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1883" s="1">
-        <v>49.533713562393885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1884" s="1">
-        <v>23.058303356752884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1885" spans="1:1" x14ac:dyDescent="0.25">
@@ -9935,62 +9939,62 @@
     </row>
     <row r="1914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1914" s="1">
-        <v>0.93314188337410076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1915" s="1">
-        <v>29.524161935584626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1916" s="1">
-        <v>40.150590813568819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1917" s="1">
-        <v>65.394849955753074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1918" s="1">
-        <v>64.445376026509109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1919" s="1">
-        <v>72.813275887875392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1920" s="1">
-        <v>60.127366373721337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1921" s="1">
-        <v>80.660477596888057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1922" s="1">
-        <v>77.775887673593473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1923" s="1">
-        <v>64.654501986448281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1924" s="1">
-        <v>29.332135450155977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1925" s="1">
-        <v>6.6359792654821739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1926" spans="1:1" x14ac:dyDescent="0.25">
@@ -10165,22 +10169,22 @@
     </row>
     <row r="1960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1960" s="1">
-        <v>27.762715822047753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1961" s="1">
-        <v>89.253429155861312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1962" s="1">
-        <v>95</v>
+        <v>42.158812791144399</v>
       </c>
     </row>
     <row r="1963" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1963" s="1">
-        <v>95</v>
+        <v>79.780152460620428</v>
       </c>
     </row>
     <row r="1964" spans="1:1" x14ac:dyDescent="0.25">
@@ -10200,147 +10204,147 @@
     </row>
     <row r="1967" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1967" s="1">
-        <v>95</v>
+        <v>83.920564694894054</v>
       </c>
     </row>
     <row r="1968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1968" s="1">
-        <v>95</v>
+        <v>84.544367091077149</v>
       </c>
     </row>
     <row r="1969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1969" s="1">
-        <v>95</v>
+        <v>75.817379625294123</v>
       </c>
     </row>
     <row r="1970" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1970" s="1">
-        <v>95</v>
+        <v>72.384939775128458</v>
       </c>
     </row>
     <row r="1971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1971" s="1">
-        <v>95</v>
+        <v>65.694431399082859</v>
       </c>
     </row>
     <row r="1972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1972" s="1">
-        <v>95</v>
+        <v>76.690146652973283</v>
       </c>
     </row>
     <row r="1973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1973" s="1">
-        <v>95</v>
+        <v>69.87873395383096</v>
       </c>
     </row>
     <row r="1974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1974" s="1">
-        <v>95</v>
+        <v>74.744975376113402</v>
       </c>
     </row>
     <row r="1975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1975" s="1">
-        <v>95</v>
+        <v>65.602514313247212</v>
       </c>
     </row>
     <row r="1976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1976" s="1">
-        <v>95</v>
+        <v>63.040972126377007</v>
       </c>
     </row>
     <row r="1977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1977" s="1">
-        <v>95</v>
+        <v>62.501494424658731</v>
       </c>
     </row>
     <row r="1978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1978" s="1">
-        <v>95</v>
+        <v>61.534721970112763</v>
       </c>
     </row>
     <row r="1979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1979" s="1">
-        <v>95</v>
+        <v>66.504814722421344</v>
       </c>
     </row>
     <row r="1980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1980" s="1">
-        <v>95</v>
+        <v>62.246451763810228</v>
       </c>
     </row>
     <row r="1981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1981" s="1">
-        <v>95</v>
+        <v>56.907368927205802</v>
       </c>
     </row>
     <row r="1982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1982" s="1">
-        <v>95</v>
+        <v>68.505104622787826</v>
       </c>
     </row>
     <row r="1983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1983" s="1">
-        <v>95</v>
+        <v>80.632184066273496</v>
       </c>
     </row>
     <row r="1984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1984" s="1">
-        <v>95</v>
+        <v>93.763317776512096</v>
       </c>
     </row>
     <row r="1985" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1985" s="1">
-        <v>95</v>
+        <v>83.442397766257088</v>
       </c>
     </row>
     <row r="1986" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1986" s="1">
-        <v>95</v>
+        <v>81.347239641582092</v>
       </c>
     </row>
     <row r="1987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1987" s="1">
-        <v>95</v>
+        <v>56.241607009391799</v>
       </c>
     </row>
     <row r="1988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1988" s="1">
-        <v>95</v>
+        <v>47.431532754020296</v>
       </c>
     </row>
     <row r="1989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1989" s="1">
-        <v>95</v>
+        <v>26.18883055370955</v>
       </c>
     </row>
     <row r="1990" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1990" s="1">
-        <v>95</v>
+        <v>23.46160032810122</v>
       </c>
     </row>
     <row r="1991" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1991" s="1">
-        <v>95</v>
+        <v>0.79875527899973353</v>
       </c>
     </row>
     <row r="1992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1992" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1993" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1994" s="1">
-        <v>81.605130365400598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1995" s="1">
-        <v>38.719859934768856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1996" spans="1:1" x14ac:dyDescent="0.25">
@@ -10390,107 +10394,107 @@
     </row>
     <row r="2005" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2005" s="1">
-        <v>8.1968343089222611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2006" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2006" s="1">
-        <v>16.340302712460499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2007" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2007" s="1">
-        <v>52.233783526629232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2008" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2008" s="1">
-        <v>78.755495965999174</v>
+        <v>16.535495965999136</v>
       </c>
     </row>
     <row r="2009" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2009" s="1">
-        <v>95</v>
+        <v>49.137520154996814</v>
       </c>
     </row>
     <row r="2010" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2010" s="1">
-        <v>95</v>
+        <v>65.415725084641949</v>
       </c>
     </row>
     <row r="2011" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2011" s="1">
-        <v>95</v>
+        <v>83.402248820414897</v>
       </c>
     </row>
     <row r="2012" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2012" s="1">
-        <v>95</v>
+        <v>83.484671967295768</v>
       </c>
     </row>
     <row r="2013" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2013" s="1">
-        <v>95</v>
+        <v>73.985381474211181</v>
       </c>
     </row>
     <row r="2014" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2014" s="1">
-        <v>95</v>
+        <v>63.598586508908419</v>
       </c>
     </row>
     <row r="2015" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2015" s="1">
-        <v>95</v>
+        <v>40.21820270854343</v>
       </c>
     </row>
     <row r="2016" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2016" s="1">
-        <v>92.199002305143381</v>
+        <v>35.949002305143338</v>
       </c>
     </row>
     <row r="2017" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2017" s="1">
-        <v>82.82470177207891</v>
+        <v>21.689701772078905</v>
       </c>
     </row>
     <row r="2018" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2018" s="1">
-        <v>86.567107193650514</v>
+        <v>14.477107193650507</v>
       </c>
     </row>
     <row r="2019" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2019" s="1">
-        <v>79.94862165377215</v>
+        <v>11.403621653772179</v>
       </c>
     </row>
     <row r="2020" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2020" s="1">
-        <v>88.268079070565335</v>
+        <v>14.378079070565317</v>
       </c>
     </row>
     <row r="2021" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2021" s="1">
-        <v>95</v>
+        <v>23.264820314300007</v>
       </c>
     </row>
     <row r="2022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2022" s="1">
-        <v>95</v>
+        <v>26.547764106249605</v>
       </c>
     </row>
     <row r="2023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2023" s="1">
-        <v>95</v>
+        <v>55.271687155272616</v>
       </c>
     </row>
     <row r="2024" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2024" s="1">
-        <v>95</v>
+        <v>77.828213149519826</v>
       </c>
     </row>
     <row r="2025" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2025" s="1">
-        <v>95</v>
+        <v>86.283774122859867</v>
       </c>
     </row>
     <row r="2026" spans="1:1" x14ac:dyDescent="0.25">
@@ -10545,22 +10549,22 @@
     </row>
     <row r="2036" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2036" s="1">
-        <v>95</v>
+        <v>55.456190015831517</v>
       </c>
     </row>
     <row r="2037" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2037" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2038" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2038" s="1">
-        <v>60.075626787754409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2039" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2039" s="1">
-        <v>14.596276781513126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2040" spans="1:1" x14ac:dyDescent="0.25">
@@ -10660,57 +10664,57 @@
     </row>
     <row r="2059" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2059" s="1">
-        <v>23.715203100582212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2060" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2060" s="1">
-        <v>52.058548939962925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2061" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2061" s="1">
-        <v>49.697690371700581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2062" s="1">
-        <v>45.697626935644863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2063" s="1">
-        <v>49.423166368339729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2064" s="1">
-        <v>52.929035262190418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2065" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2065" s="1">
-        <v>64.814906757175663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2066" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2066" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2067" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2067" s="1">
-        <v>95</v>
+        <v>28.550402957220843</v>
       </c>
     </row>
     <row r="2068" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2068" s="1">
-        <v>95</v>
+        <v>48.012759618731934</v>
       </c>
     </row>
     <row r="2069" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2069" s="1">
-        <v>95</v>
+        <v>74.852336589609891</v>
       </c>
     </row>
     <row r="2070" spans="1:1" x14ac:dyDescent="0.25">
@@ -10780,22 +10784,22 @@
     </row>
     <row r="2083" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2083" s="1">
-        <v>95</v>
+        <v>69.193932890519122</v>
       </c>
     </row>
     <row r="2084" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2084" s="1">
-        <v>95</v>
+        <v>8.4472506545931356</v>
       </c>
     </row>
     <row r="2085" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2085" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2086" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2086" s="1">
-        <v>39.947604469968823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2087" spans="1:1" x14ac:dyDescent="0.25">
@@ -10890,17 +10894,17 @@
     </row>
     <row r="2105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2105" s="1">
-        <v>74.269830585347691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2106" s="1">
-        <v>95</v>
+        <v>46.384509677325212</v>
       </c>
     </row>
     <row r="2107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2107" s="1">
-        <v>95</v>
+        <v>77.992085342637324</v>
       </c>
     </row>
     <row r="2108" spans="1:1" x14ac:dyDescent="0.25">
@@ -11015,22 +11019,22 @@
     </row>
     <row r="2130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2130" s="1">
-        <v>95</v>
+        <v>77.179330601032589</v>
       </c>
     </row>
     <row r="2131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2131" s="1">
-        <v>95</v>
+        <v>39.145954249825415</v>
       </c>
     </row>
     <row r="2132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2132" s="1">
-        <v>63.093090525215622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2133" s="1">
-        <v>3.8459413509567275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2134" spans="1:1" x14ac:dyDescent="0.25">
@@ -11115,22 +11119,22 @@
     </row>
     <row r="2150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2150" s="1">
-        <v>20.300101774760467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2151" s="1">
-        <v>85.460940372261135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2152" s="1">
-        <v>95</v>
+        <v>40.150571641588719</v>
       </c>
     </row>
     <row r="2153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2153" s="1">
-        <v>95</v>
+        <v>87.708141794847805</v>
       </c>
     </row>
     <row r="2154" spans="1:1" x14ac:dyDescent="0.25">
@@ -11210,62 +11214,62 @@
     </row>
     <row r="2169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2169" s="1">
-        <v>95</v>
+        <v>87.981897920045384</v>
       </c>
     </row>
     <row r="2170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2170" s="1">
-        <v>95</v>
+        <v>82.05451135950203</v>
       </c>
     </row>
     <row r="2171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2171" s="1">
-        <v>95</v>
+        <v>77.510006015123594</v>
       </c>
     </row>
     <row r="2172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2172" s="1">
-        <v>95</v>
+        <v>73.010734464527886</v>
       </c>
     </row>
     <row r="2173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2173" s="1">
-        <v>95</v>
+        <v>73.355640930197069</v>
       </c>
     </row>
     <row r="2174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2174" s="1">
-        <v>95</v>
+        <v>67.411488409535167</v>
       </c>
     </row>
     <row r="2175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2175" s="1">
-        <v>95</v>
+        <v>67.226088518737953</v>
       </c>
     </row>
     <row r="2176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2176" s="1">
-        <v>95</v>
+        <v>59.622809956267474</v>
       </c>
     </row>
     <row r="2177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2177" s="1">
-        <v>95</v>
+        <v>51.457523609103148</v>
       </c>
     </row>
     <row r="2178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2178" s="1">
-        <v>92.544619331402401</v>
+        <v>29.064619331402362</v>
       </c>
     </row>
     <row r="2179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2179" s="1">
-        <v>87.556555060862635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2180" s="1">
-        <v>38.180597845986838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2181" spans="1:1" x14ac:dyDescent="0.25">
@@ -11355,22 +11359,22 @@
     </row>
     <row r="2198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2198" s="1">
-        <v>8.9327918154797405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2199" s="1">
-        <v>86.89363533075047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2200" s="1">
-        <v>95</v>
+        <v>6.6980354394300861</v>
       </c>
     </row>
     <row r="2201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2201" s="1">
-        <v>95</v>
+        <v>69.912422726672418</v>
       </c>
     </row>
     <row r="2202" spans="1:1" x14ac:dyDescent="0.25">
@@ -11430,32 +11434,32 @@
     </row>
     <row r="2213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2213" s="1">
-        <v>95</v>
+        <v>86.708937318824539</v>
       </c>
     </row>
     <row r="2214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2214" s="1">
-        <v>95</v>
+        <v>87.959581486425051</v>
       </c>
     </row>
     <row r="2215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2215" s="1">
-        <v>95</v>
+        <v>87.767570386195587</v>
       </c>
     </row>
     <row r="2216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2216" s="1">
-        <v>95</v>
+        <v>85.631163371429125</v>
       </c>
     </row>
     <row r="2217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2217" s="1">
-        <v>95</v>
+        <v>91.437829358848361</v>
       </c>
     </row>
     <row r="2218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2218" s="1">
-        <v>95</v>
+        <v>90.206991701035449</v>
       </c>
     </row>
     <row r="2219" spans="1:1" x14ac:dyDescent="0.25">
@@ -11470,7 +11474,7 @@
     </row>
     <row r="2221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2221" s="1">
-        <v>95</v>
+        <v>94.86793792257923</v>
       </c>
     </row>
     <row r="2222" spans="1:1" x14ac:dyDescent="0.25">
@@ -11480,47 +11484,47 @@
     </row>
     <row r="2223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2223" s="1">
-        <v>95</v>
+        <v>85.021916349419797</v>
       </c>
     </row>
     <row r="2224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2224" s="1">
-        <v>95</v>
+        <v>80.300434302281673</v>
       </c>
     </row>
     <row r="2225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2225" s="1">
-        <v>95</v>
+        <v>63.603415512518325</v>
       </c>
     </row>
     <row r="2226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2226" s="1">
-        <v>95</v>
+        <v>35.774682745092896</v>
       </c>
     </row>
     <row r="2227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2227" s="1">
-        <v>62.50706930149029</v>
+        <v>7.8170693014902746</v>
       </c>
     </row>
     <row r="2228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2228" s="1">
-        <v>52.27132811409475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2229" s="1">
-        <v>43.694347183148302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2230" s="1">
-        <v>24.521211263744036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2231" s="1">
-        <v>16.744206507283625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2232" spans="1:1" x14ac:dyDescent="0.25">
@@ -11555,17 +11559,17 @@
     </row>
     <row r="2238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2238" s="1">
-        <v>33.20369725841207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2239" s="1">
-        <v>7.8148877892851036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2240" s="1">
-        <v>11.682885124582052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2241" spans="1:1" x14ac:dyDescent="0.25">
@@ -11590,7 +11594,7 @@
     </row>
     <row r="2245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2245" s="1">
-        <v>4.5456109690327775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2246" spans="1:1" x14ac:dyDescent="0.25">
@@ -11600,127 +11604,127 @@
     </row>
     <row r="2247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2247" s="1">
-        <v>17.026875904300677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2248" s="1">
-        <v>55.650335776545148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2249" s="1">
-        <v>95</v>
+        <v>12.006792474067144</v>
       </c>
     </row>
     <row r="2250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2250" s="1">
-        <v>95</v>
+        <v>52.588131363156101</v>
       </c>
     </row>
     <row r="2251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2251" s="1">
-        <v>95</v>
+        <v>69.405963387840345</v>
       </c>
     </row>
     <row r="2252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2252" s="1">
-        <v>95</v>
+        <v>72.077753520746299</v>
       </c>
     </row>
     <row r="2253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2253" s="1">
-        <v>95</v>
+        <v>70.404399071939665</v>
       </c>
     </row>
     <row r="2254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2254" s="1">
-        <v>95</v>
+        <v>74.628552366973977</v>
       </c>
     </row>
     <row r="2255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2255" s="1">
-        <v>95</v>
+        <v>59.734261633770323</v>
       </c>
     </row>
     <row r="2256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2256" s="1">
-        <v>93.273411612159663</v>
+        <v>52.543411612159638</v>
       </c>
     </row>
     <row r="2257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2257" s="1">
-        <v>88.149519521682734</v>
+        <v>51.874519521682736</v>
       </c>
     </row>
     <row r="2258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2258" s="1">
-        <v>83.723552908701819</v>
+        <v>51.618552908701822</v>
       </c>
     </row>
     <row r="2259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2259" s="1">
-        <v>95</v>
+        <v>55.630776828264018</v>
       </c>
     </row>
     <row r="2260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2260" s="1">
-        <v>95</v>
+        <v>65.573141890206344</v>
       </c>
     </row>
     <row r="2261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2261" s="1">
-        <v>95</v>
+        <v>58.039158608662099</v>
       </c>
     </row>
     <row r="2262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2262" s="1">
-        <v>95</v>
+        <v>65.09116273796316</v>
       </c>
     </row>
     <row r="2263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2263" s="1">
-        <v>95</v>
+        <v>67.505948253680131</v>
       </c>
     </row>
     <row r="2264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2264" s="1">
-        <v>95</v>
+        <v>66.641830758639912</v>
       </c>
     </row>
     <row r="2265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2265" s="1">
-        <v>95</v>
+        <v>62.062240095367436</v>
       </c>
     </row>
     <row r="2266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2266" s="1">
-        <v>95</v>
+        <v>60.112151370893145</v>
       </c>
     </row>
     <row r="2267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2267" s="1">
-        <v>95</v>
+        <v>53.988769125205984</v>
       </c>
     </row>
     <row r="2268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2268" s="1">
-        <v>95</v>
+        <v>53.66780441542582</v>
       </c>
     </row>
     <row r="2269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2269" s="1">
-        <v>95</v>
+        <v>70.619575069720952</v>
       </c>
     </row>
     <row r="2270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2270" s="1">
-        <v>95</v>
+        <v>78.626990346453084</v>
       </c>
     </row>
     <row r="2271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2271" s="1">
-        <v>95</v>
+        <v>91.097001897396339</v>
       </c>
     </row>
     <row r="2272" spans="1:1" x14ac:dyDescent="0.25">
@@ -11750,37 +11754,37 @@
     </row>
     <row r="2277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2277" s="1">
-        <v>95</v>
+        <v>74.872492377853618</v>
       </c>
     </row>
     <row r="2278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2278" s="1">
-        <v>95</v>
+        <v>62.149700308123165</v>
       </c>
     </row>
     <row r="2279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2279" s="1">
-        <v>95</v>
+        <v>39.952710188008126</v>
       </c>
     </row>
     <row r="2280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2280" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2281" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2282" s="1">
-        <v>66.016095199269316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2283" s="1">
-        <v>2.3648393006432249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2284" spans="1:1" x14ac:dyDescent="0.25">
@@ -11860,92 +11864,92 @@
     </row>
     <row r="2299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2299" s="1">
-        <v>34.447970918575614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2300" s="1">
-        <v>44.545978485328696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2301" s="1">
-        <v>57.805724842011919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2302" s="1">
-        <v>58.367301998444923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2303" s="1">
-        <v>68.499711119906124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2304" s="1">
-        <v>55.379456850597862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2305" s="1">
-        <v>58.322052180216012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2306" s="1">
-        <v>57.306042628894893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2307" s="1">
-        <v>51.900651598212164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2308" s="1">
-        <v>55.482203763572571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2309" s="1">
-        <v>65.541645282052087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2310" s="1">
-        <v>84.535090877137307</v>
+        <v>14.680090877137292</v>
       </c>
     </row>
     <row r="2311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2311" s="1">
-        <v>95</v>
+        <v>32.316562841784283</v>
       </c>
     </row>
     <row r="2312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2312" s="1">
-        <v>95</v>
+        <v>36.175650900278441</v>
       </c>
     </row>
     <row r="2313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2313" s="1">
-        <v>95</v>
+        <v>47.418806393185029</v>
       </c>
     </row>
     <row r="2314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2314" s="1">
-        <v>95</v>
+        <v>60.902182671398762</v>
       </c>
     </row>
     <row r="2315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2315" s="1">
-        <v>95</v>
+        <v>77.67528755430007</v>
       </c>
     </row>
     <row r="2316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2316" s="1">
-        <v>95</v>
+        <v>86.745095230113506</v>
       </c>
     </row>
     <row r="2317" spans="1:1" x14ac:dyDescent="0.25">
@@ -11975,27 +11979,27 @@
     </row>
     <row r="2322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2322" s="1">
-        <v>95</v>
+        <v>74.291741705928942</v>
       </c>
     </row>
     <row r="2323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2323" s="1">
-        <v>95</v>
+        <v>33.187022633771114</v>
       </c>
     </row>
     <row r="2324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2324" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2325" s="1">
-        <v>79.042664716621658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2326" s="1">
-        <v>43.258194121716251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2327" spans="1:1" x14ac:dyDescent="0.25">
@@ -12090,132 +12094,132 @@
     </row>
     <row r="2345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2345" s="1">
-        <v>7.1225120659846919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2346" s="1">
-        <v>47.502807142342618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2347" s="1">
-        <v>60.07210258788357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2348" s="1">
-        <v>58.82724913557125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2349" s="1">
-        <v>24.394009508716309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2350" s="1">
-        <v>7.2426148969888988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2351" s="1">
-        <v>18.042178859391271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2352" s="1">
-        <v>13.307702060221862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2353" s="1">
-        <v>14.817758248091042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2354" s="1">
-        <v>16.488225765582818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2355" s="1">
-        <v>21.801849527170916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2356" s="1">
-        <v>35.828850979657901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2357" s="1">
-        <v>42.025883948477379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2358" s="1">
-        <v>63.293162348914187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2359" s="1">
-        <v>72.268891580340593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2360" s="1">
-        <v>70.937155597736776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2361" s="1">
-        <v>86.156992466239899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2362" s="1">
-        <v>59.981675993938936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2363" s="1">
-        <v>82.31279004191525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2364" s="1">
-        <v>77.487216020858412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2365" s="1">
-        <v>69.793715636574433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2366" s="1">
-        <v>62.440336827299788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2367" s="1">
-        <v>76.157106820858672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2368" s="1">
-        <v>46.477389260189803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2369" s="1">
-        <v>21.197383071517098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2370" s="1">
-        <v>26.348894791991874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2371" spans="1:1" x14ac:dyDescent="0.25">
@@ -12585,122 +12589,122 @@
     </row>
     <row r="2444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2444" s="1">
-        <v>44.91121065048263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2445" s="1">
-        <v>94.030317677568092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2446" s="1">
-        <v>93.940223310762164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2447" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2448" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2449" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2450" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2451" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2452" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2453" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2454" s="1">
-        <v>85.113423000531981</v>
+        <v>2.7284230005319934</v>
       </c>
     </row>
     <row r="2455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2455" s="1">
-        <v>82.626549359610763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2456" s="1">
-        <v>76.860366633834815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2457" s="1">
-        <v>82.178159108707774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2458" s="1">
-        <v>75.236656992763344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2459" s="1">
-        <v>66.433962119296737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2460" s="1">
-        <v>68.03993455119496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2461" s="1">
-        <v>48.93617537364679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2462" s="1">
-        <v>68.162655391159589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2463" s="1">
-        <v>76.441055704641158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2464" s="1">
-        <v>82.221030787613046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2465" s="1">
-        <v>52.468652536229918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2466" s="1">
-        <v>46.451419971854676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2467" s="1">
-        <v>21.449207366036415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2468" spans="1:1" x14ac:dyDescent="0.25">
@@ -12795,82 +12799,82 @@
     </row>
     <row r="2486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2486" s="1">
-        <v>7.9109881293339175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2487" s="1">
-        <v>39.663060826010209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2488" s="1">
-        <v>78.600998341286214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2489" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2490" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2491" s="1">
-        <v>95</v>
+        <v>26.164094915144037</v>
       </c>
     </row>
     <row r="2492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2492" s="1">
-        <v>95</v>
+        <v>37.527131707404685</v>
       </c>
     </row>
     <row r="2493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2493" s="1">
-        <v>95</v>
+        <v>28.339602436933227</v>
       </c>
     </row>
     <row r="2494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2494" s="1">
-        <v>95</v>
+        <v>14.476754870902322</v>
       </c>
     </row>
     <row r="2495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2495" s="1">
-        <v>89.564723110152926</v>
+        <v>18.389723110152872</v>
       </c>
     </row>
     <row r="2496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2496" s="1">
-        <v>83.892994810425961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2497" s="1">
-        <v>59.69092055700478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2498" s="1">
-        <v>44.377731137990743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2499" s="1">
-        <v>31.381334269891237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2500" s="1">
-        <v>29.973272249650606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2501" s="1">
-        <v>4.8012367890115364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2502" spans="1:1" x14ac:dyDescent="0.25">
@@ -12920,12 +12924,12 @@
     </row>
     <row r="2511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2511" s="1">
-        <v>0.35132098392396072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2512" s="1">
-        <v>9.1594333255831852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2513" spans="1:1" x14ac:dyDescent="0.25">
@@ -13060,12 +13064,12 @@
     </row>
     <row r="2539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2539" s="1">
-        <v>1.2844950445421091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2540" s="1">
-        <v>15.700983888008441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2541" spans="1:1" x14ac:dyDescent="0.25">
@@ -13145,52 +13149,52 @@
     </row>
     <row r="2556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2556" s="1">
-        <v>16.134316350092512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2557" s="1">
-        <v>38.19396684786782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2558" s="1">
-        <v>60.764817985051302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2559" s="1">
-        <v>72.785079281346881</v>
+        <v>1.0400792813468889</v>
       </c>
     </row>
     <row r="2560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2560" s="1">
-        <v>83.819316236339617</v>
+        <v>13.674316236339608</v>
       </c>
     </row>
     <row r="2561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2561" s="1">
-        <v>85.505640800852746</v>
+        <v>10.485640800852753</v>
       </c>
     </row>
     <row r="2562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2562" s="1">
-        <v>85.629852935460633</v>
+        <v>6.5248529354606299</v>
       </c>
     </row>
     <row r="2563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2563" s="1">
-        <v>76.669577253625164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2564" s="1">
-        <v>46.981367711322534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2565" s="1">
-        <v>12.892822202925444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2566" spans="1:1" x14ac:dyDescent="0.25">
@@ -13300,77 +13304,77 @@
     </row>
     <row r="2587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2587" s="1">
-        <v>1.6831380958924638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2588" s="1">
-        <v>12.240066085482677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2589" s="1">
-        <v>16.012546463045645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2590" s="1">
-        <v>14.583251401333172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2591" s="1">
-        <v>19.397325414261495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2592" s="1">
-        <v>8.4937393747298486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2593" s="1">
-        <v>14.698713349369891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2594" s="1">
-        <v>13.022181558628935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2595" s="1">
-        <v>15.656905813143233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2596" s="1">
-        <v>21.631937391140575</v>
+        <v>1.4419373911405364</v>
       </c>
     </row>
     <row r="2597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2597" s="1">
-        <v>43.182770096146655</v>
+        <v>14.092770096146658</v>
       </c>
     </row>
     <row r="2598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2598" s="1">
-        <v>58.436069615665517</v>
+        <v>32.656069615665537</v>
       </c>
     </row>
     <row r="2599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2599" s="1">
-        <v>78.68197921110503</v>
+        <v>44.856979211105035</v>
       </c>
     </row>
     <row r="2600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2600" s="1">
-        <v>95</v>
+        <v>71.115510792185589</v>
       </c>
     </row>
     <row r="2601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2601" s="1">
-        <v>95</v>
+        <v>78.457756768135198</v>
       </c>
     </row>
     <row r="2602" spans="1:1" x14ac:dyDescent="0.25">
@@ -13420,12 +13424,12 @@
     </row>
     <row r="2611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2611" s="1">
-        <v>95</v>
+        <v>47.693910092109931</v>
       </c>
     </row>
     <row r="2612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2612" s="1">
-        <v>42.166323750549118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2613" spans="1:1" x14ac:dyDescent="0.25">
@@ -13595,57 +13599,57 @@
     </row>
     <row r="2646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2646" s="1">
-        <v>0.33619228662703793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2647" s="1">
-        <v>15.28825394360584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2648" s="1">
-        <v>54.794444200899491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2649" s="1">
-        <v>62.206531653396588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2650" s="1">
-        <v>66.732628185759111</v>
+        <v>3.5026281857591037</v>
       </c>
     </row>
     <row r="2651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2651" s="1">
-        <v>62.644014727803032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2652" s="1">
-        <v>54.96597698388355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2653" s="1">
-        <v>32.00001020833183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2654" s="1">
-        <v>4.7237645564028758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2655" s="1">
-        <v>12.305980857555907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2656" s="1">
-        <v>1.4288796933356753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2657" spans="1:1" x14ac:dyDescent="0.25">
@@ -13795,72 +13799,72 @@
     </row>
     <row r="2686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2686" s="1">
-        <v>30.097621416642902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2687" s="1">
-        <v>66.464526243148853</v>
+        <v>11.159526243148859</v>
       </c>
     </row>
     <row r="2688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2688" s="1">
-        <v>78.730790952312333</v>
+        <v>33.155790952312337</v>
       </c>
     </row>
     <row r="2689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2689" s="1">
-        <v>95</v>
+        <v>55.32795299122062</v>
       </c>
     </row>
     <row r="2690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2690" s="1">
-        <v>95</v>
+        <v>72.799881923068057</v>
       </c>
     </row>
     <row r="2691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2691" s="1">
-        <v>95</v>
+        <v>77.678314153703482</v>
       </c>
     </row>
     <row r="2692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2692" s="1">
-        <v>95</v>
+        <v>91.21868392683858</v>
       </c>
     </row>
     <row r="2693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2693" s="1">
-        <v>95</v>
+        <v>94.001462187968968</v>
       </c>
     </row>
     <row r="2694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2694" s="1">
-        <v>95</v>
+        <v>82.40431854199683</v>
       </c>
     </row>
     <row r="2695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2695" s="1">
-        <v>95</v>
+        <v>79.609832027814193</v>
       </c>
     </row>
     <row r="2696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2696" s="1">
-        <v>95</v>
+        <v>79.824587280115836</v>
       </c>
     </row>
     <row r="2697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2697" s="1">
-        <v>95</v>
+        <v>85.105200077137127</v>
       </c>
     </row>
     <row r="2698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2698" s="1">
-        <v>95</v>
+        <v>76.631662957433861</v>
       </c>
     </row>
     <row r="2699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2699" s="1">
-        <v>95</v>
+        <v>74.268965009134831</v>
       </c>
     </row>
     <row r="2700" spans="1:1" x14ac:dyDescent="0.25">
@@ -13870,37 +13874,37 @@
     </row>
     <row r="2701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2701" s="1">
-        <v>95</v>
+        <v>94.373831664552313</v>
       </c>
     </row>
     <row r="2702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2702" s="1">
-        <v>95</v>
+        <v>90.485922746865285</v>
       </c>
     </row>
     <row r="2703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2703" s="1">
-        <v>95</v>
+        <v>85.535182368119933</v>
       </c>
     </row>
     <row r="2704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2704" s="1">
-        <v>95</v>
+        <v>79.52808276467384</v>
       </c>
     </row>
     <row r="2705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2705" s="1">
-        <v>95</v>
+        <v>52.976375130372041</v>
       </c>
     </row>
     <row r="2706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2706" s="1">
-        <v>56.828127201189048</v>
+        <v>10.933127201189045</v>
       </c>
     </row>
     <row r="2707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2707" s="1">
-        <v>0.94391715722905234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2708" spans="1:1" x14ac:dyDescent="0.25">
@@ -14010,47 +14014,47 @@
     </row>
     <row r="2729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2729" s="1">
-        <v>17.160760544194847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2730" s="1">
-        <v>76.402640349613449</v>
+        <v>29.327640349613404</v>
       </c>
     </row>
     <row r="2731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2731" s="1">
-        <v>95</v>
+        <v>55.140627221101632</v>
       </c>
     </row>
     <row r="2732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2732" s="1">
-        <v>95</v>
+        <v>74.355559822672035</v>
       </c>
     </row>
     <row r="2733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2733" s="1">
-        <v>95</v>
+        <v>66.078298080848057</v>
       </c>
     </row>
     <row r="2734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2734" s="1">
-        <v>89.046415787230444</v>
+        <v>36.831415787230426</v>
       </c>
     </row>
     <row r="2735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2735" s="1">
-        <v>80.533309606564828</v>
+        <v>18.518309606564827</v>
       </c>
     </row>
     <row r="2736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2736" s="1">
-        <v>54.716294482063063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2737" s="1">
-        <v>29.077032795036782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2738" spans="1:1" x14ac:dyDescent="0.25">
@@ -14250,57 +14254,57 @@
     </row>
     <row r="2777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2777" s="1">
-        <v>55.612639754337593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2778" s="1">
-        <v>77.711013343999895</v>
+        <v>12.346013343999902</v>
       </c>
     </row>
     <row r="2779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2779" s="1">
-        <v>95</v>
+        <v>31.738241886380301</v>
       </c>
     </row>
     <row r="2780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2780" s="1">
-        <v>95</v>
+        <v>42.768484038550042</v>
       </c>
     </row>
     <row r="2781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2781" s="1">
-        <v>95</v>
+        <v>29.300381354151643</v>
       </c>
     </row>
     <row r="2782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2782" s="1">
-        <v>95</v>
+        <v>47.991227208539776</v>
       </c>
     </row>
     <row r="2783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2783" s="1">
-        <v>95</v>
+        <v>30.360989684035001</v>
       </c>
     </row>
     <row r="2784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2784" s="1">
-        <v>62.616519233539812</v>
+        <v>7.0765192335398117</v>
       </c>
     </row>
     <row r="2785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2785" s="1">
-        <v>47.380014048368743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2786" s="1">
-        <v>18.883760867725023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2787" s="1">
-        <v>9.8424494278345005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2788" spans="1:1" x14ac:dyDescent="0.25">
@@ -14500,22 +14504,22 @@
     </row>
     <row r="2827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2827" s="1">
-        <v>16.56425486202631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2828" s="1">
-        <v>9.2542003417936485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2829" s="1">
-        <v>10.911839187100622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2830" s="1">
-        <v>0.26256017786376107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2831" spans="1:1" x14ac:dyDescent="0.25">
@@ -14585,57 +14589,57 @@
     </row>
     <row r="2844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2844" s="1">
-        <v>0.22915852457372241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2845" s="1">
-        <v>32.812995677295618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2846" s="1">
-        <v>52.673316314775377</v>
+        <v>2.3733163147753933</v>
       </c>
     </row>
     <row r="2847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2847" s="1">
-        <v>58.628164260523796</v>
+        <v>9.7431642605238</v>
       </c>
     </row>
     <row r="2848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2848" s="1">
-        <v>68.387098013532992</v>
+        <v>24.147098013532986</v>
       </c>
     </row>
     <row r="2849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2849" s="1">
-        <v>75.672534513091264</v>
+        <v>20.792534513091223</v>
       </c>
     </row>
     <row r="2850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2850" s="1">
-        <v>81.827574777712272</v>
+        <v>37.782574777712277</v>
       </c>
     </row>
     <row r="2851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2851" s="1">
-        <v>70.483262142108032</v>
+        <v>21.483262142108021</v>
       </c>
     </row>
     <row r="2852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2852" s="1">
-        <v>63.95938425760734</v>
+        <v>9.6393842576072988</v>
       </c>
     </row>
     <row r="2853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2853" s="1">
-        <v>38.149011975718153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2854" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2854" s="1">
-        <v>5.6495363790712325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2855" spans="1:1" x14ac:dyDescent="0.25">
@@ -14735,92 +14739,92 @@
     </row>
     <row r="2874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2874" s="1">
-        <v>14.142201006699279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2875" s="1">
-        <v>45.046336532569939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2876" s="1">
-        <v>54.704924603595593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2877" s="1">
-        <v>39.212282091917579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2878" s="1">
-        <v>42.721895761776416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2879" s="1">
-        <v>49.906218171839654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2880" s="1">
-        <v>35.767202563911368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2881" s="1">
-        <v>44.055654602971018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2882" s="1">
-        <v>47.565487199783348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2883" s="1">
-        <v>41.440920843664522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2884" s="1">
-        <v>59.095495835662106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2885" s="1">
-        <v>85.217252983316286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2886" s="1">
-        <v>95</v>
+        <v>8.5183723232559796</v>
       </c>
     </row>
     <row r="2887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2887" s="1">
-        <v>95</v>
+        <v>26.616364634212651</v>
       </c>
     </row>
     <row r="2888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2888" s="1">
-        <v>95</v>
+        <v>38.8232347938741</v>
       </c>
     </row>
     <row r="2889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2889" s="1">
-        <v>95</v>
+        <v>46.577467899253122</v>
       </c>
     </row>
     <row r="2890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2890" s="1">
-        <v>95</v>
+        <v>71.044735065479642</v>
       </c>
     </row>
     <row r="2891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2891" s="1">
-        <v>95</v>
+        <v>77.430266605076568</v>
       </c>
     </row>
     <row r="2892" spans="1:1" x14ac:dyDescent="0.25">
@@ -14850,42 +14854,42 @@
     </row>
     <row r="2897" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2897" s="1">
-        <v>95</v>
+        <v>92.024967160267877</v>
       </c>
     </row>
     <row r="2898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2898" s="1">
-        <v>95</v>
+        <v>72.368572915317742</v>
       </c>
     </row>
     <row r="2899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2899" s="1">
-        <v>95</v>
+        <v>61.341979224010259</v>
       </c>
     </row>
     <row r="2900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2900" s="1">
-        <v>95</v>
+        <v>30.13552961268789</v>
       </c>
     </row>
     <row r="2901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2901" s="1">
-        <v>95</v>
+        <v>12.418810104811955</v>
       </c>
     </row>
     <row r="2902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2902" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2903" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2904" s="1">
-        <v>45.82923391502186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2905" spans="1:1" x14ac:dyDescent="0.25">
@@ -14980,132 +14984,132 @@
     </row>
     <row r="2923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2923" s="1">
-        <v>10.305617331196254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2924" s="1">
-        <v>7.0087766532199653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2925" s="1">
-        <v>23.890919896268542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2926" s="1">
-        <v>37.341420948214441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2927" s="1">
-        <v>48.80478385356956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2928" s="1">
-        <v>48.404859530327045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2929" s="1">
-        <v>77.179497238256616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2930" s="1">
-        <v>92.872816058866363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2931" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2932" s="1">
-        <v>95</v>
+        <v>10.273530874737981</v>
       </c>
     </row>
     <row r="2933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2933" s="1">
-        <v>95</v>
+        <v>21.293818947583194</v>
       </c>
     </row>
     <row r="2934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2934" s="1">
-        <v>95</v>
+        <v>39.358984652185129</v>
       </c>
     </row>
     <row r="2935" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2935" s="1">
-        <v>95</v>
+        <v>47.96087828652503</v>
       </c>
     </row>
     <row r="2936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2936" s="1">
-        <v>95</v>
+        <v>52.14171812222753</v>
       </c>
     </row>
     <row r="2937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2937" s="1">
-        <v>95</v>
+        <v>49.995451997575977</v>
       </c>
     </row>
     <row r="2938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2938" s="1">
-        <v>95</v>
+        <v>62.852078665259235</v>
       </c>
     </row>
     <row r="2939" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2939" s="1">
-        <v>95</v>
+        <v>54.072558072850839</v>
       </c>
     </row>
     <row r="2940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2940" s="1">
-        <v>95</v>
+        <v>49.767623703847377</v>
       </c>
     </row>
     <row r="2941" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2941" s="1">
-        <v>95</v>
+        <v>54.230133072696653</v>
       </c>
     </row>
     <row r="2942" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2942" s="1">
-        <v>95</v>
+        <v>49.080674212385993</v>
       </c>
     </row>
     <row r="2943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2943" s="1">
-        <v>95</v>
+        <v>48.495933044891402</v>
       </c>
     </row>
     <row r="2944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2944" s="1">
-        <v>95</v>
+        <v>39.36953384298841</v>
       </c>
     </row>
     <row r="2945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2945" s="1">
-        <v>95</v>
+        <v>31.551019474219526</v>
       </c>
     </row>
     <row r="2946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2946" s="1">
-        <v>95</v>
+        <v>27.152251534134436</v>
       </c>
     </row>
     <row r="2947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2947" s="1">
-        <v>60.285578585655529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2948" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2948" s="1">
-        <v>10.766818064970348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2949" spans="1:1" x14ac:dyDescent="0.25">
@@ -15210,137 +15214,137 @@
     </row>
     <row r="2969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2969" s="1">
-        <v>32.860639347116148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2970" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2970" s="1">
-        <v>85.648527949863123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2971" s="1">
-        <v>95</v>
+        <v>11.815137453176748</v>
       </c>
     </row>
     <row r="2972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2972" s="1">
-        <v>95</v>
+        <v>26.304128750973334</v>
       </c>
     </row>
     <row r="2973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2973" s="1">
-        <v>95</v>
+        <v>15.878039037362532</v>
       </c>
     </row>
     <row r="2974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2974" s="1">
-        <v>95</v>
+        <v>23.51497993218646</v>
       </c>
     </row>
     <row r="2975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2975" s="1">
-        <v>95</v>
+        <v>27.559568841573391</v>
       </c>
     </row>
     <row r="2976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2976" s="1">
-        <v>95</v>
+        <v>33.745015412644655</v>
       </c>
     </row>
     <row r="2977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2977" s="1">
-        <v>95</v>
+        <v>13.87795252236935</v>
       </c>
     </row>
     <row r="2978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2978" s="1">
-        <v>95</v>
+        <v>20.76754368736928</v>
       </c>
     </row>
     <row r="2979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2979" s="1">
-        <v>95</v>
+        <v>24.965535521825014</v>
       </c>
     </row>
     <row r="2980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2980" s="1">
-        <v>95</v>
+        <v>38.522986026750175</v>
       </c>
     </row>
     <row r="2981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2981" s="1">
-        <v>95</v>
+        <v>39.362230907308216</v>
       </c>
     </row>
     <row r="2982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2982" s="1">
-        <v>95</v>
+        <v>43.815747464594537</v>
       </c>
     </row>
     <row r="2983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2983" s="1">
-        <v>95</v>
+        <v>46.683255025543232</v>
       </c>
     </row>
     <row r="2984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2984" s="1">
-        <v>95</v>
+        <v>55.637957344196799</v>
       </c>
     </row>
     <row r="2985" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2985" s="1">
-        <v>95</v>
+        <v>53.375815934976089</v>
       </c>
     </row>
     <row r="2986" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2986" s="1">
-        <v>95</v>
+        <v>46.576530762059512</v>
       </c>
     </row>
     <row r="2987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2987" s="1">
-        <v>95</v>
+        <v>78.404933864473037</v>
       </c>
     </row>
     <row r="2988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2988" s="1">
-        <v>95</v>
+        <v>74.010498753529603</v>
       </c>
     </row>
     <row r="2989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2989" s="1">
-        <v>95</v>
+        <v>57.640523127953912</v>
       </c>
     </row>
     <row r="2990" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2990" s="1">
-        <v>95</v>
+        <v>45.800776960002473</v>
       </c>
     </row>
     <row r="2991" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2991" s="1">
-        <v>95</v>
+        <v>33.406039867992391</v>
       </c>
     </row>
     <row r="2992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2992" s="1">
-        <v>95</v>
+        <v>17.012222136420888</v>
       </c>
     </row>
     <row r="2993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2993" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2994" s="1">
-        <v>57.770368950645413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2995" s="1">
-        <v>19.90179024403108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2996" spans="1:1" x14ac:dyDescent="0.25">
@@ -15440,137 +15444,137 @@
     </row>
     <row r="3015" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3015" s="1">
-        <v>9.9323851419602835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3016" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3016" s="1">
-        <v>70.218818298876243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3017" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3017" s="1">
-        <v>95</v>
+        <v>20.491041456562442</v>
       </c>
     </row>
     <row r="3018" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3018" s="1">
-        <v>95</v>
+        <v>51.350014347116144</v>
       </c>
     </row>
     <row r="3019" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3019" s="1">
-        <v>95</v>
+        <v>62.714100934063275</v>
       </c>
     </row>
     <row r="3020" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3020" s="1">
-        <v>95</v>
+        <v>45.543942425326229</v>
       </c>
     </row>
     <row r="3021" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3021" s="1">
-        <v>95</v>
+        <v>25.22410609037567</v>
       </c>
     </row>
     <row r="3022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3022" s="1">
-        <v>95</v>
+        <v>6.5084382106053535</v>
       </c>
     </row>
     <row r="3023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3023" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3024" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3024" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3025" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3025" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3026" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3026" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3027" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3027" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3028" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3028" s="1">
-        <v>81.392773540208978</v>
+        <v>0.49277354020900027</v>
       </c>
     </row>
     <row r="3029" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3029" s="1">
-        <v>64.806105809356879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3030" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3030" s="1">
-        <v>53.263041348508843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3031" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3031" s="1">
-        <v>56.595846013396979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3032" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3032" s="1">
-        <v>48.270305636109072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3033" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3033" s="1">
-        <v>46.256299661908528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3034" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3034" s="1">
-        <v>39.556581470167941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3035" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3035" s="1">
-        <v>37.51032697494221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3036" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3036" s="1">
-        <v>43.965037153058248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3037" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3037" s="1">
-        <v>51.838539959088195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3038" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3038" s="1">
-        <v>50.483553267478996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3039" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3039" s="1">
-        <v>40.444846849796221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3040" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3040" s="1">
-        <v>33.976662562510349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3041" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3041" s="1">
-        <v>21.72044131157535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3042" spans="1:1" x14ac:dyDescent="0.25">
@@ -15675,57 +15679,57 @@
     </row>
     <row r="3062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3062" s="1">
-        <v>20.581928409915374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3063" s="1">
-        <v>35.802358509820792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3064" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3065" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3065" s="1">
-        <v>95</v>
+        <v>17.591433796162885</v>
       </c>
     </row>
     <row r="3066" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3066" s="1">
-        <v>95</v>
+        <v>49.745691122796934</v>
       </c>
     </row>
     <row r="3067" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3067" s="1">
-        <v>95</v>
+        <v>57.630990176127369</v>
       </c>
     </row>
     <row r="3068" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3068" s="1">
-        <v>95</v>
+        <v>38.345416501584779</v>
       </c>
     </row>
     <row r="3069" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3069" s="1">
-        <v>95</v>
+        <v>28.170450223310752</v>
       </c>
     </row>
     <row r="3070" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3070" s="1">
-        <v>78.585910767071169</v>
+        <v>7.1909107670711823</v>
       </c>
     </row>
     <row r="3071" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3071" s="1">
-        <v>44.737567353407279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3072" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3072" s="1">
-        <v>13.855760697305842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3073" spans="1:1" x14ac:dyDescent="0.25">
@@ -15765,62 +15769,62 @@
     </row>
     <row r="3080" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3080" s="1">
-        <v>3.4920291371913299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3081" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3081" s="1">
-        <v>7.1500316845092851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3082" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3082" s="1">
-        <v>21.127981584079688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3083" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3083" s="1">
-        <v>34.168200931475248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3084" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3084" s="1">
-        <v>34.733038270873358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3085" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3085" s="1">
-        <v>33.433756831481773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3086" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3086" s="1">
-        <v>40.433400770361835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3087" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3087" s="1">
-        <v>41.476772633934587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3088" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3088" s="1">
-        <v>41.839612781616694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3089" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3089" s="1">
-        <v>38.605042562044645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3090" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3090" s="1">
-        <v>38.022261516361915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3091" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3091" s="1">
-        <v>11.793870764607409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3092" spans="1:1" x14ac:dyDescent="0.25">
@@ -15915,127 +15919,127 @@
     </row>
     <row r="3110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3110" s="1">
-        <v>6.7563617390606314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3111" s="1">
-        <v>29.980760940928679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3112" s="1">
-        <v>73.650175602098628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3113" s="1">
-        <v>95</v>
+        <v>31.801190780627138</v>
       </c>
     </row>
     <row r="3114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3114" s="1">
-        <v>95</v>
+        <v>62.034455950151269</v>
       </c>
     </row>
     <row r="3115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3115" s="1">
-        <v>95</v>
+        <v>65.403662420295873</v>
       </c>
     </row>
     <row r="3116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3116" s="1">
-        <v>95</v>
+        <v>55.184518155888554</v>
       </c>
     </row>
     <row r="3117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3117" s="1">
-        <v>60.08427944929943</v>
+        <v>38.404279449299416</v>
       </c>
     </row>
     <row r="3118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3118" s="1">
-        <v>68.585662498871812</v>
+        <v>43.890662498871812</v>
       </c>
     </row>
     <row r="3119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3119" s="1">
-        <v>68.296133391111397</v>
+        <v>41.596133391111408</v>
       </c>
     </row>
     <row r="3120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3120" s="1">
-        <v>51.730106394250129</v>
+        <v>31.445106394250132</v>
       </c>
     </row>
     <row r="3121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3121" s="1">
-        <v>59.362950706819042</v>
+        <v>24.057950706819035</v>
       </c>
     </row>
     <row r="3122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3122" s="1">
-        <v>54.619630591247933</v>
+        <v>19.219630591247945</v>
       </c>
     </row>
     <row r="3123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3123" s="1">
-        <v>57.644518106194639</v>
+        <v>12.589518106194673</v>
       </c>
     </row>
     <row r="3124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3124" s="1">
-        <v>54.229084509963613</v>
+        <v>14.544084509963643</v>
       </c>
     </row>
     <row r="3125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3125" s="1">
-        <v>61.632239002218213</v>
+        <v>16.507239002218238</v>
       </c>
     </row>
     <row r="3126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3126" s="1">
-        <v>68.339469169548579</v>
+        <v>17.659469169548547</v>
       </c>
     </row>
     <row r="3127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3127" s="1">
-        <v>63.807046069792264</v>
+        <v>12.162046069792222</v>
       </c>
     </row>
     <row r="3128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3128" s="1">
-        <v>63.851161243992571</v>
+        <v>9.6811612439925465</v>
       </c>
     </row>
     <row r="3129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3129" s="1">
-        <v>72.030702945392434</v>
+        <v>15.445702945392432</v>
       </c>
     </row>
     <row r="3130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3130" s="1">
-        <v>85.843596673911335</v>
+        <v>26.448596673911336</v>
       </c>
     </row>
     <row r="3131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3131" s="1">
-        <v>95</v>
+        <v>45.08163115520086</v>
       </c>
     </row>
     <row r="3132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3132" s="1">
-        <v>95</v>
+        <v>58.259728321589947</v>
       </c>
     </row>
     <row r="3133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3133" s="1">
-        <v>95</v>
+        <v>76.405647676889771</v>
       </c>
     </row>
     <row r="3134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3134" s="1">
-        <v>95</v>
+        <v>85.4061247440209</v>
       </c>
     </row>
     <row r="3135" spans="1:1" x14ac:dyDescent="0.25">
@@ -16065,22 +16069,22 @@
     </row>
     <row r="3140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3140" s="1">
-        <v>95</v>
+        <v>71.110532194844126</v>
       </c>
     </row>
     <row r="3141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3141" s="1">
-        <v>95</v>
+        <v>26.816707078208811</v>
       </c>
     </row>
     <row r="3142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3142" s="1">
-        <v>81.089345103420314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3143" s="1">
-        <v>10.388852364839105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3144" spans="1:1" x14ac:dyDescent="0.25">
@@ -16165,97 +16169,97 @@
     </row>
     <row r="3160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3160" s="1">
-        <v>25.884648139446004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3161" s="1">
-        <v>64.774729253102478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3162" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3163" s="1">
-        <v>95</v>
+        <v>12.004383013974937</v>
       </c>
     </row>
     <row r="3164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3164" s="1">
-        <v>89.458188301397456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3165" s="1">
-        <v>82.514957498919458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3166" s="1">
-        <v>49.825933420486265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3167" s="1">
-        <v>45.144779270751741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3168" s="1">
-        <v>33.060291744705346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3169" s="1">
-        <v>26.440567610717764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3170" s="1">
-        <v>21.090819105108814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3171" s="1">
-        <v>51.24557121250426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3172" s="1">
-        <v>77.547237707256855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3173" s="1">
-        <v>79.25913115660228</v>
+        <v>5.3891311566022972</v>
       </c>
     </row>
     <row r="3174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3174" s="1">
-        <v>95</v>
+        <v>23.052595444538955</v>
       </c>
     </row>
     <row r="3175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3175" s="1">
-        <v>95</v>
+        <v>33.685673441575666</v>
       </c>
     </row>
     <row r="3176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3176" s="1">
-        <v>95</v>
+        <v>56.387748802160708</v>
       </c>
     </row>
     <row r="3177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3177" s="1">
-        <v>95</v>
+        <v>72.831152274563209</v>
       </c>
     </row>
     <row r="3178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3178" s="1">
-        <v>95</v>
+        <v>93.37900618442157</v>
       </c>
     </row>
     <row r="3179" spans="1:1" x14ac:dyDescent="0.25">
@@ -16300,22 +16304,22 @@
     </row>
     <row r="3187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3187" s="1">
-        <v>95</v>
+        <v>48.611205928043042</v>
       </c>
     </row>
     <row r="3188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3188" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3189" s="1">
-        <v>80.787506153051865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3190" s="1">
-        <v>37.30317045754694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3191" spans="1:1" x14ac:dyDescent="0.25">
@@ -16410,72 +16414,72 @@
     </row>
     <row r="3209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3209" s="1">
-        <v>14.521372790904236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3210" s="1">
-        <v>33.670868510781318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3211" s="1">
-        <v>36.891495836935128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3212" s="1">
-        <v>39.816993513782791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3213" s="1">
-        <v>59.937799308456988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3214" s="1">
-        <v>70.32595447341879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3215" s="1">
-        <v>83.517784335115792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3216" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3217" s="1">
-        <v>95</v>
+        <v>13.996333563548676</v>
       </c>
     </row>
     <row r="3218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3218" s="1">
-        <v>95</v>
+        <v>31.514290613436092</v>
       </c>
     </row>
     <row r="3219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3219" s="1">
-        <v>95</v>
+        <v>59.428165673208888</v>
       </c>
     </row>
     <row r="3220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3220" s="1">
-        <v>95</v>
+        <v>71.765218338334691</v>
       </c>
     </row>
     <row r="3221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3221" s="1">
-        <v>95</v>
+        <v>79.870127071587802</v>
       </c>
     </row>
     <row r="3222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3222" s="1">
-        <v>95</v>
+        <v>90.018105967641645</v>
       </c>
     </row>
     <row r="3223" spans="1:1" x14ac:dyDescent="0.25">
@@ -16500,57 +16504,57 @@
     </row>
     <row r="3227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3227" s="1">
-        <v>95</v>
+        <v>94.661924946057269</v>
       </c>
     </row>
     <row r="3228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3228" s="1">
-        <v>95</v>
+        <v>91.341330407430718</v>
       </c>
     </row>
     <row r="3229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3229" s="1">
-        <v>95</v>
+        <v>77.275122278548977</v>
       </c>
     </row>
     <row r="3230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3230" s="1">
-        <v>95</v>
+        <v>81.567080674971976</v>
       </c>
     </row>
     <row r="3231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3231" s="1">
-        <v>95</v>
+        <v>74.825540094190202</v>
       </c>
     </row>
     <row r="3232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3232" s="1">
-        <v>95</v>
+        <v>64.390309325312472</v>
       </c>
     </row>
     <row r="3233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3233" s="1">
-        <v>95</v>
+        <v>70.499282296742891</v>
       </c>
     </row>
     <row r="3234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3234" s="1">
-        <v>95</v>
+        <v>46.036769943222531</v>
       </c>
     </row>
     <row r="3235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3235" s="1">
-        <v>95</v>
+        <v>9.7149727950666325</v>
       </c>
     </row>
     <row r="3236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3236" s="1">
-        <v>90.152091823809201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3237" s="1">
-        <v>34.388575423079082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3238" spans="1:1" x14ac:dyDescent="0.25">
@@ -16645,92 +16649,92 @@
     </row>
     <row r="3256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3256" s="1">
-        <v>25.789369582312823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3257" s="1">
-        <v>92.035147958387341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3258" s="1">
-        <v>95</v>
+        <v>20.212373157085921</v>
       </c>
     </row>
     <row r="3259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3259" s="1">
-        <v>95</v>
+        <v>46.763275869831403</v>
       </c>
     </row>
     <row r="3260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3260" s="1">
-        <v>95</v>
+        <v>60.846488258176045</v>
       </c>
     </row>
     <row r="3261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3261" s="1">
-        <v>95</v>
+        <v>61.399968304278907</v>
       </c>
     </row>
     <row r="3262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3262" s="1">
-        <v>95</v>
+        <v>66.694676750173869</v>
       </c>
     </row>
     <row r="3263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3263" s="1">
-        <v>95</v>
+        <v>70.956400063458673</v>
       </c>
     </row>
     <row r="3264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3264" s="1">
-        <v>95</v>
+        <v>51.168581081118923</v>
       </c>
     </row>
     <row r="3265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3265" s="1">
-        <v>95</v>
+        <v>63.56734039601151</v>
       </c>
     </row>
     <row r="3266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3266" s="1">
-        <v>95</v>
+        <v>63.55751359849581</v>
       </c>
     </row>
     <row r="3267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3267" s="1">
-        <v>95</v>
+        <v>65.705952477720786</v>
       </c>
     </row>
     <row r="3268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3268" s="1">
-        <v>95</v>
+        <v>75.051556403415773</v>
       </c>
     </row>
     <row r="3269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3269" s="1">
-        <v>95</v>
+        <v>83.180037685618117</v>
       </c>
     </row>
     <row r="3270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3270" s="1">
-        <v>95</v>
+        <v>79.426765685429785</v>
       </c>
     </row>
     <row r="3271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3271" s="1">
-        <v>95</v>
+        <v>72.822702194763295</v>
       </c>
     </row>
     <row r="3272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3272" s="1">
-        <v>95</v>
+        <v>74.760479295473772</v>
       </c>
     </row>
     <row r="3273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3273" s="1">
-        <v>95</v>
+        <v>75.86608477400118</v>
       </c>
     </row>
     <row r="3274" spans="1:1" x14ac:dyDescent="0.25">
@@ -16740,57 +16744,57 @@
     </row>
     <row r="3275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3275" s="1">
-        <v>95</v>
+        <v>79.693425831508151</v>
       </c>
     </row>
     <row r="3276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3276" s="1">
-        <v>95</v>
+        <v>73.315894526798175</v>
       </c>
     </row>
     <row r="3277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3277" s="1">
-        <v>95</v>
+        <v>66.301793412178327</v>
       </c>
     </row>
     <row r="3278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3278" s="1">
-        <v>95</v>
+        <v>53.99778663913802</v>
       </c>
     </row>
     <row r="3279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3279" s="1">
-        <v>95</v>
+        <v>42.176674976469272</v>
       </c>
     </row>
     <row r="3280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3280" s="1">
-        <v>95</v>
+        <v>28.06905843899737</v>
       </c>
     </row>
     <row r="3281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3281" s="1">
-        <v>95</v>
+        <v>17.506331743910732</v>
       </c>
     </row>
     <row r="3282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3282" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3283" s="1">
-        <v>60.494911521075501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3284" s="1">
-        <v>42.623435729121603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3285" s="1">
-        <v>7.9583338435863613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3286" spans="1:1" x14ac:dyDescent="0.25">
@@ -16875,67 +16879,67 @@
     </row>
     <row r="3302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3302" s="1">
-        <v>6.5943766808336202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3303" s="1">
-        <v>68.56512666282471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3304" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3305" s="1">
-        <v>95</v>
+        <v>38.741119390217527</v>
       </c>
     </row>
     <row r="3306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3306" s="1">
-        <v>95</v>
+        <v>59.714753997982982</v>
       </c>
     </row>
     <row r="3307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3307" s="1">
-        <v>95</v>
+        <v>74.287691239854951</v>
       </c>
     </row>
     <row r="3308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3308" s="1">
-        <v>95</v>
+        <v>85.00405834293808</v>
       </c>
     </row>
     <row r="3309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3309" s="1">
-        <v>95</v>
+        <v>78.195851027109455</v>
       </c>
     </row>
     <row r="3310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3310" s="1">
-        <v>95</v>
+        <v>80.558495893963396</v>
       </c>
     </row>
     <row r="3311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3311" s="1">
-        <v>95</v>
+        <v>89.064782979050207</v>
       </c>
     </row>
     <row r="3312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3312" s="1">
-        <v>95</v>
+        <v>74.787829563463475</v>
       </c>
     </row>
     <row r="3313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3313" s="1">
-        <v>95</v>
+        <v>71.573776152193247</v>
       </c>
     </row>
     <row r="3314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3314" s="1">
-        <v>95</v>
+        <v>74.491459031851008</v>
       </c>
     </row>
     <row r="3315" spans="1:1" x14ac:dyDescent="0.25">
@@ -16945,82 +16949,82 @@
     </row>
     <row r="3316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3316" s="1">
-        <v>95</v>
+        <v>84.365401827633363</v>
       </c>
     </row>
     <row r="3317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3317" s="1">
-        <v>95</v>
+        <v>67.084848778223559</v>
       </c>
     </row>
     <row r="3318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3318" s="1">
-        <v>95</v>
+        <v>62.483289840943982</v>
       </c>
     </row>
     <row r="3319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3319" s="1">
-        <v>95</v>
+        <v>47.021433547459736</v>
       </c>
     </row>
     <row r="3320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3320" s="1">
-        <v>95</v>
+        <v>33.407878715936526</v>
       </c>
     </row>
     <row r="3321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3321" s="1">
-        <v>95</v>
+        <v>20.35625931909696</v>
       </c>
     </row>
     <row r="3322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3322" s="1">
-        <v>95</v>
+        <v>11.96764959186291</v>
       </c>
     </row>
     <row r="3323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3323" s="1">
-        <v>95</v>
+        <v>12.489397444945926</v>
       </c>
     </row>
     <row r="3324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3324" s="1">
-        <v>95</v>
+        <v>7.1601034231266487</v>
       </c>
     </row>
     <row r="3325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3325" s="1">
-        <v>95</v>
+        <v>7.4305845405157473</v>
       </c>
     </row>
     <row r="3326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3326" s="1">
-        <v>90.806098410336816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3327" s="1">
-        <v>78.730525933703561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3328" s="1">
-        <v>85.294008316704819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3329" s="1">
-        <v>73.999115981215368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3330" s="1">
-        <v>49.218527523172916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3331" s="1">
-        <v>9.2600270964359055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3332" spans="1:1" x14ac:dyDescent="0.25">
@@ -17115,157 +17119,157 @@
     </row>
     <row r="3350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3350" s="1">
-        <v>46.848987798901511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3351" s="1">
-        <v>89.969364528366313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3352" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3353" s="1">
-        <v>95</v>
+        <v>22.01085585950629</v>
       </c>
     </row>
     <row r="3354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3354" s="1">
-        <v>95</v>
+        <v>47.931630708831591</v>
       </c>
     </row>
     <row r="3355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3355" s="1">
-        <v>95</v>
+        <v>53.677446618522765</v>
       </c>
     </row>
     <row r="3356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3356" s="1">
-        <v>95</v>
+        <v>57.702856501824876</v>
       </c>
     </row>
     <row r="3357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3357" s="1">
-        <v>95</v>
+        <v>38.166739662872793</v>
       </c>
     </row>
     <row r="3358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3358" s="1">
-        <v>95</v>
+        <v>28.420817353267115</v>
       </c>
     </row>
     <row r="3359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3359" s="1">
-        <v>87.694785739952692</v>
+        <v>17.684785739952684</v>
       </c>
     </row>
     <row r="3360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3360" s="1">
-        <v>71.961772513407894</v>
+        <v>8.001772513407877</v>
       </c>
     </row>
     <row r="3361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3361" s="1">
-        <v>50.291307683941945</v>
+        <v>9.7963076839419507</v>
       </c>
     </row>
     <row r="3362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3362" s="1">
-        <v>40.034052626445089</v>
+        <v>8.9040526264450897</v>
       </c>
     </row>
     <row r="3363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3363" s="1">
-        <v>25.37842567734609</v>
+        <v>5.1684256773460762</v>
       </c>
     </row>
     <row r="3364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3364" s="1">
-        <v>33.388056784336214</v>
+        <v>16.488056784336212</v>
       </c>
     </row>
     <row r="3365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3365" s="1">
-        <v>42.373434932676005</v>
+        <v>20.773434932676018</v>
       </c>
     </row>
     <row r="3366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3366" s="1">
-        <v>46.009748438338235</v>
+        <v>21.094748438338236</v>
       </c>
     </row>
     <row r="3367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3367" s="1">
-        <v>49.462766612083932</v>
+        <v>17.232766612083932</v>
       </c>
     </row>
     <row r="3368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3368" s="1">
-        <v>51.002096133222942</v>
+        <v>19.442096133222922</v>
       </c>
     </row>
     <row r="3369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3369" s="1">
-        <v>51.186471143383628</v>
+        <v>17.181471143383614</v>
       </c>
     </row>
     <row r="3370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3370" s="1">
-        <v>58.826376165535279</v>
+        <v>17.956376165535286</v>
       </c>
     </row>
     <row r="3371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3371" s="1">
-        <v>63.290118996298396</v>
+        <v>18.640118996298416</v>
       </c>
     </row>
     <row r="3372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3372" s="1">
-        <v>67.955836441334014</v>
+        <v>15.295836441334041</v>
       </c>
     </row>
     <row r="3373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3373" s="1">
-        <v>69.014804732719384</v>
+        <v>12.129804732719412</v>
       </c>
     </row>
     <row r="3374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3374" s="1">
-        <v>59.195456642058645</v>
+        <v>13.165456642058643</v>
       </c>
     </row>
     <row r="3375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3375" s="1">
-        <v>58.497995937969613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3376" s="1">
-        <v>68.940530305541245</v>
+        <v>11.815530305541278</v>
       </c>
     </row>
     <row r="3377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3377" s="1">
-        <v>79.956876293092733</v>
+        <v>10.37687629309271</v>
       </c>
     </row>
     <row r="3378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3378" s="1">
-        <v>70.761798397510958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3379" s="1">
-        <v>51.345719508413111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3380" s="1">
-        <v>31.792071975968533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3381" spans="1:1" x14ac:dyDescent="0.25">
@@ -17355,162 +17359,162 @@
     </row>
     <row r="3398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3398" s="1">
-        <v>20.863718803203362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3399" s="1">
-        <v>24.311320730082127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3400" s="1">
-        <v>71.639989239662896</v>
+        <v>5.3549892396628458</v>
       </c>
     </row>
     <row r="3401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3401" s="1">
-        <v>95</v>
+        <v>47.270945739086592</v>
       </c>
     </row>
     <row r="3402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3402" s="1">
-        <v>95</v>
+        <v>61.131663335014153</v>
       </c>
     </row>
     <row r="3403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3403" s="1">
-        <v>82.861110805959711</v>
+        <v>52.166110805959718</v>
       </c>
     </row>
     <row r="3404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3404" s="1">
-        <v>54.263773951880125</v>
+        <v>40.168773951880134</v>
       </c>
     </row>
     <row r="3405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3405" s="1">
-        <v>42.077528454113221</v>
+        <v>33.06752845411323</v>
       </c>
     </row>
     <row r="3406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3406" s="1">
-        <v>33.205353033937506</v>
+        <v>16.515353033937512</v>
       </c>
     </row>
     <row r="3407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3407" s="1">
-        <v>36.973663423283611</v>
+        <v>11.533663423283606</v>
       </c>
     </row>
     <row r="3408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3408" s="1">
-        <v>20.612268405128951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3409" s="1">
-        <v>21.546984494659529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3410" s="1">
-        <v>15.840570671535561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3411" s="1">
-        <v>20.751393232677646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3412" s="1">
-        <v>31.555459260010853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3413" s="1">
-        <v>28.054847082440819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3414" s="1">
-        <v>21.386942977413302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3415" s="1">
-        <v>17.911730427163448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3416" s="1">
-        <v>25.9468453115391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3417" s="1">
-        <v>38.888739826004269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3418" s="1">
-        <v>48.070645361655778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3419" s="1">
-        <v>58.521062328004177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3420" s="1">
-        <v>81.390473484965284</v>
+        <v>5.7954734849652594</v>
       </c>
     </row>
     <row r="3421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3421" s="1">
-        <v>95</v>
+        <v>11.2391382648751</v>
       </c>
     </row>
     <row r="3422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3422" s="1">
-        <v>95</v>
+        <v>17.044643378290722</v>
       </c>
     </row>
     <row r="3423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3423" s="1">
-        <v>95</v>
+        <v>22.242526354706161</v>
       </c>
     </row>
     <row r="3424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3424" s="1">
-        <v>95</v>
+        <v>29.045794528113174</v>
       </c>
     </row>
     <row r="3425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3425" s="1">
-        <v>95</v>
+        <v>30.485456811286561</v>
       </c>
     </row>
     <row r="3426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3426" s="1">
-        <v>95</v>
+        <v>28.427221456005579</v>
       </c>
     </row>
     <row r="3427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3427" s="1">
-        <v>95</v>
+        <v>10.440451303729887</v>
       </c>
     </row>
     <row r="3428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3428" s="1">
-        <v>81.324415724479465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3429" s="1">
-        <v>31.836130779874505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3430" spans="1:1" x14ac:dyDescent="0.25">
@@ -17665,52 +17669,52 @@
     </row>
     <row r="3460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3460" s="1">
-        <v>38.222564959690821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3461" s="1">
-        <v>66.070058133114145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3462" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3463" s="1">
-        <v>95</v>
+        <v>0.46143712682267507</v>
       </c>
     </row>
     <row r="3464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3464" s="1">
-        <v>95</v>
+        <v>24.943488261539596</v>
       </c>
     </row>
     <row r="3465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3465" s="1">
-        <v>95</v>
+        <v>37.332516763022646</v>
       </c>
     </row>
     <row r="3466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3466" s="1">
-        <v>95</v>
+        <v>57.4582034569302</v>
       </c>
     </row>
     <row r="3467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3467" s="1">
-        <v>95</v>
+        <v>79.043684235162729</v>
       </c>
     </row>
     <row r="3468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3468" s="1">
-        <v>95</v>
+        <v>91.309324341293546</v>
       </c>
     </row>
     <row r="3469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3469" s="1">
-        <v>95</v>
+        <v>92.897045884797762</v>
       </c>
     </row>
     <row r="3470" spans="1:1" x14ac:dyDescent="0.25">
@@ -17725,42 +17729,42 @@
     </row>
     <row r="3472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3472" s="1">
-        <v>95</v>
+        <v>84.860073510079715</v>
       </c>
     </row>
     <row r="3473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3473" s="1">
-        <v>95</v>
+        <v>77.356489185192217</v>
       </c>
     </row>
     <row r="3474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3474" s="1">
-        <v>95</v>
+        <v>66.968384050668135</v>
       </c>
     </row>
     <row r="3475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3475" s="1">
-        <v>95</v>
+        <v>47.884324915430454</v>
       </c>
     </row>
     <row r="3476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3476" s="1">
-        <v>95</v>
+        <v>16.007075924035753</v>
       </c>
     </row>
     <row r="3477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3477" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3478" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3479" s="1">
-        <v>21.618047784424771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3480" spans="1:1" x14ac:dyDescent="0.25">
@@ -17875,112 +17879,112 @@
     </row>
     <row r="3502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3502" s="1">
-        <v>15.106849033852296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3503" s="1">
-        <v>27.13064996689717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3504" s="1">
-        <v>35.157280365302427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3505" s="1">
-        <v>50.409165341340042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3506" s="1">
-        <v>85.558692688849959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3507" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3508" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3509" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3510" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3511" s="1">
-        <v>95</v>
+        <v>1.6574884252316771</v>
       </c>
     </row>
     <row r="3512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3512" s="1">
-        <v>95</v>
+        <v>3.9654296917263125</v>
       </c>
     </row>
     <row r="3513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3513" s="1">
-        <v>95</v>
+        <v>7.3717207485885954</v>
       </c>
     </row>
     <row r="3514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3514" s="1">
-        <v>95</v>
+        <v>10.433346513722928</v>
       </c>
     </row>
     <row r="3515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3515" s="1">
-        <v>95</v>
+        <v>19.646404209016826</v>
       </c>
     </row>
     <row r="3516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3516" s="1">
-        <v>95</v>
+        <v>22.765548466591945</v>
       </c>
     </row>
     <row r="3517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3517" s="1">
-        <v>95</v>
+        <v>27.126726127443241</v>
       </c>
     </row>
     <row r="3518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3518" s="1">
-        <v>95</v>
+        <v>26.281384986408479</v>
       </c>
     </row>
     <row r="3519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3519" s="1">
-        <v>95</v>
+        <v>25.4916143403237</v>
       </c>
     </row>
     <row r="3520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3520" s="1">
-        <v>95</v>
+        <v>31.989563093488915</v>
       </c>
     </row>
     <row r="3521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3521" s="1">
-        <v>95</v>
+        <v>9.3369300772015507</v>
       </c>
     </row>
     <row r="3522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3522" s="1">
-        <v>91.398529654288282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3523" s="1">
-        <v>51.311351958236649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3524" spans="1:1" x14ac:dyDescent="0.25">
@@ -18090,132 +18094,132 @@
     </row>
     <row r="3545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3545" s="1">
-        <v>35.097831904624684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3546" s="1">
-        <v>77.484519146496694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3547" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3548" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3549" s="1">
-        <v>95</v>
+        <v>1.1839348766988314</v>
       </c>
     </row>
     <row r="3550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3550" s="1">
-        <v>95</v>
+        <v>15.186685179195184</v>
       </c>
     </row>
     <row r="3551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3551" s="1">
-        <v>95</v>
+        <v>10.884984465310344</v>
       </c>
     </row>
     <row r="3552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3552" s="1">
-        <v>95</v>
+        <v>1.4520946693256609</v>
       </c>
     </row>
     <row r="3553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3553" s="1">
-        <v>95</v>
+        <v>6.1751149908876144</v>
       </c>
     </row>
     <row r="3554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3554" s="1">
-        <v>95</v>
+        <v>14.872565828604284</v>
       </c>
     </row>
     <row r="3555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3555" s="1">
-        <v>95</v>
+        <v>16.706805599390524</v>
       </c>
     </row>
     <row r="3556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3556" s="1">
-        <v>95</v>
+        <v>16.400573118508028</v>
       </c>
     </row>
     <row r="3557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3557" s="1">
-        <v>95</v>
+        <v>16.878265449701949</v>
       </c>
     </row>
     <row r="3558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3558" s="1">
-        <v>95</v>
+        <v>15.506464536838275</v>
       </c>
     </row>
     <row r="3559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3559" s="1">
-        <v>95</v>
+        <v>16.653935440850244</v>
       </c>
     </row>
     <row r="3560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3560" s="1">
-        <v>95</v>
+        <v>20.017115140004382</v>
       </c>
     </row>
     <row r="3561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3561" s="1">
-        <v>95</v>
+        <v>31.710554798448509</v>
       </c>
     </row>
     <row r="3562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3562" s="1">
-        <v>95</v>
+        <v>29.898154354910194</v>
       </c>
     </row>
     <row r="3563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3563" s="1">
-        <v>95</v>
+        <v>21.945433747590133</v>
       </c>
     </row>
     <row r="3564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3564" s="1">
-        <v>95</v>
+        <v>7.0780264116059879</v>
       </c>
     </row>
     <row r="3565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3565" s="1">
-        <v>92.465143452008192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3566" s="1">
-        <v>90.172978702650511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3567" s="1">
-        <v>79.902782765465659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3568" s="1">
-        <v>64.5144038440732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3569" s="1">
-        <v>55.049833719509287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3570" s="1">
-        <v>31.325516242865785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3571" spans="1:1" x14ac:dyDescent="0.25">
@@ -18320,142 +18324,142 @@
     </row>
     <row r="3591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3591" s="1">
-        <v>54.659046915966748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3592" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3593" s="1">
-        <v>95</v>
+        <v>37.464230178168357</v>
       </c>
     </row>
     <row r="3594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3594" s="1">
-        <v>95</v>
+        <v>63.273727518849334</v>
       </c>
     </row>
     <row r="3595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3595" s="1">
-        <v>95</v>
+        <v>70.891083777553675</v>
       </c>
     </row>
     <row r="3596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3596" s="1">
-        <v>95</v>
+        <v>68.395425866229644</v>
       </c>
     </row>
     <row r="3597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3597" s="1">
-        <v>95</v>
+        <v>47.097996536281983</v>
       </c>
     </row>
     <row r="3598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3598" s="1">
-        <v>95</v>
+        <v>49.300276900299714</v>
       </c>
     </row>
     <row r="3599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3599" s="1">
-        <v>95</v>
+        <v>41.642539592264214</v>
       </c>
     </row>
     <row r="3600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3600" s="1">
-        <v>95</v>
+        <v>26.054472736940522</v>
       </c>
     </row>
     <row r="3601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3601" s="1">
-        <v>95</v>
+        <v>33.608211228742171</v>
       </c>
     </row>
     <row r="3602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3602" s="1">
-        <v>95</v>
+        <v>42.604131545452717</v>
       </c>
     </row>
     <row r="3603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3603" s="1">
-        <v>95</v>
+        <v>46.675892182775563</v>
       </c>
     </row>
     <row r="3604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3604" s="1">
-        <v>95</v>
+        <v>37.360584616195311</v>
       </c>
     </row>
     <row r="3605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3605" s="1">
-        <v>95</v>
+        <v>34.713375454147418</v>
       </c>
     </row>
     <row r="3606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3606" s="1">
-        <v>95</v>
+        <v>29.246585769888146</v>
       </c>
     </row>
     <row r="3607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3607" s="1">
-        <v>95</v>
+        <v>19.93339561574291</v>
       </c>
     </row>
     <row r="3608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3608" s="1">
-        <v>95</v>
+        <v>13.483913062123928</v>
       </c>
     </row>
     <row r="3609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3609" s="1">
-        <v>95</v>
+        <v>1.0436373334559084</v>
       </c>
     </row>
     <row r="3610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3610" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3611" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3612" s="1">
-        <v>92.413393185588149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3613" s="1">
-        <v>89.336895862682496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3614" s="1">
-        <v>71.663219624326658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3615" s="1">
-        <v>65.192970888035148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3616" s="1">
-        <v>56.862521113195861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3617" s="1">
-        <v>33.856070623149712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3618" s="1">
-        <v>6.3093622604321355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3619" spans="1:1" x14ac:dyDescent="0.25">
@@ -18890,62 +18894,62 @@
     </row>
     <row r="3705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3705" s="1">
-        <v>10.490087788290065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3706" s="1">
-        <v>45.454440388891989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3707" s="1">
-        <v>46.909541695793948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3708" s="1">
-        <v>64.890966638207388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3709" s="1">
-        <v>88.474237500399397</v>
+        <v>6.3992375003994129</v>
       </c>
     </row>
     <row r="3710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3710" s="1">
-        <v>87.978737589252816</v>
+        <v>13.988737589252842</v>
       </c>
     </row>
     <row r="3711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3711" s="1">
-        <v>95</v>
+        <v>22.341768768671127</v>
       </c>
     </row>
     <row r="3712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3712" s="1">
-        <v>95</v>
+        <v>37.585417817685041</v>
       </c>
     </row>
     <row r="3713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3713" s="1">
-        <v>95</v>
+        <v>38.585044512720316</v>
       </c>
     </row>
     <row r="3714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3714" s="1">
-        <v>95</v>
+        <v>36.486543152543724</v>
       </c>
     </row>
     <row r="3715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3715" s="1">
-        <v>95</v>
+        <v>0.12792590990889949</v>
       </c>
     </row>
     <row r="3716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3716" s="1">
-        <v>53.510459332595516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3717" spans="1:1" x14ac:dyDescent="0.25">
